--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44007</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44174</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44768</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44792</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44830</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>44977</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>45012</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43314</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43318</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43339</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43350</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43362</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43392</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43425</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43434</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43439</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43445</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43448</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43452</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43462</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43467</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43474</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43486</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43497</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43507</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43523</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43528</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43535</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43538</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43539</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43542</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43545</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43552</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43558</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>43573</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43580</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43581</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43585</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43587</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>43588</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>43591</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>43593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>43594</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43595</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43599</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43601</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43605</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43606</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43607</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43609</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43616</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43623</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>43636</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>43640</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43641</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43642</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43643</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43644</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43650</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43651</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43658</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43665</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>43672</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43676</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43690</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43703</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43705</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43706</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43707</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43710</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43713</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43718</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>43719</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43726</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>43728</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>43731</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43732</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15392,7 +15392,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>43745</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43748</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>43756</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43763</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43767</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43769</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43770</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43780</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43782</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43786</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43789</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>43790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43791</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43794</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>43795</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43796</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43797</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43802</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43803</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43807</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43811</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>43812</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>43815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43816</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>43832</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>43832</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>43837</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>43837</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>43843</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43847</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43858</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43859</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43860</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43868</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>43873</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43873</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43875</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>43881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>43881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>43886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>43887</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>43893</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>43893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>43893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>43894</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>43901</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>43901</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>43902</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>43906</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>43909</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>43910</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>43910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>43910</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43921</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43922</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43923</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>43937</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>43942</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>43943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>43944</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>43945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>43945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>43948</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>43949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>43950</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>43951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>43951</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>43951</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>43955</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>43958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>43962</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>43965</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>43966</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>43969</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>43971</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>43971</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>43980</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>43980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>43980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>43984</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>43985</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>43986</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>43992</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>43993</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>43993</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>43999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>43999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44005</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44006</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44011</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44014</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44018</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44018</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44019</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44020</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44020</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44020</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44022</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44025</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44025</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44026</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44026</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44028</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44047</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44055</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44056</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44063</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44064</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44064</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44067</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44067</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44069</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44070</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44070</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44071</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>44071</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44071</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44077</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44077</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44081</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44083</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44084</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44084</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44085</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44088</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         <v>44090</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>44091</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44091</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44092</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44092</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44096</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>44097</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>44098</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44102</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44102</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44104</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44106</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44106</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44109</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44109</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44113</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44113</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44120</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44123</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>44123</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44123</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44124</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44131</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44133</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44133</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44137</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44137</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>44137</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44137</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44144</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44144</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44150</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>44151</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44153</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44153</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44158</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44158</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44162</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44168</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>44168</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44172</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44172</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44174</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44174</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>44174</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>44176</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44177</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44177</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44179</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44179</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>44180</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>44183</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44193</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44195</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44195</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>44201</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>44203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44210</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44216</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44216</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44221</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44223</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44225</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44231</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44232</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44236</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44237</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44237</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44238</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44238</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44239</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44239</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44239</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44239</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44244</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44244</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44249</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44256</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44263</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44285</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44295</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44305</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44308</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44312</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44313</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44316</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44316</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44322</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44330</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44335</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44337</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44349</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44355</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44357</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44361</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44361</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31740,7 +31740,7 @@
         <v>44361</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>44361</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>44362</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44362</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44363</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44368</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32159,7 +32159,7 @@
         <v>44369</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44369</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44378</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44378</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>44378</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44383</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44384</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>44386</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44393</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44404</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44412</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44421</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44439</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44452</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44453</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44454</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44455</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44460</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>44462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44462</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>44463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44473</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44473</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>44475</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>44475</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>44475</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>44475</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>44477</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>44480</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33939,7 +33939,7 @@
         <v>44483</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34001,7 +34001,7 @@
         <v>44484</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>44484</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>44491</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34172,7 +34172,7 @@
         <v>44496</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34229,7 +34229,7 @@
         <v>44496</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34286,7 +34286,7 @@
         <v>44503</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34348,7 +34348,7 @@
         <v>44503</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>44509</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>44511</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44517</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44522</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>44522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44523</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>44524</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34938,7 +34938,7 @@
         <v>44526</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35000,7 +35000,7 @@
         <v>44529</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35062,7 +35062,7 @@
         <v>44529</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>44535</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>44536</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>44536</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>44539</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>44545</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35471,7 +35471,7 @@
         <v>44546</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35533,7 +35533,7 @@
         <v>44546</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
         <v>44557</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>44566</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>44566</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>44568</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>44571</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>44573</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>44574</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35999,7 +35999,7 @@
         <v>44574</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>44578</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         <v>44578</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36175,7 +36175,7 @@
         <v>44592</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         <v>44594</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44607</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36346,7 +36346,7 @@
         <v>44610</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36403,7 +36403,7 @@
         <v>44610</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36460,7 +36460,7 @@
         <v>44610</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>44610</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>44610</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>44613</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>44627</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36745,7 +36745,7 @@
         <v>44627</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44627</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36859,7 +36859,7 @@
         <v>44649</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36916,7 +36916,7 @@
         <v>44649</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36973,7 +36973,7 @@
         <v>44649</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37030,7 +37030,7 @@
         <v>44655</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37087,7 +37087,7 @@
         <v>44658</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37149,7 +37149,7 @@
         <v>44664</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>44670</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>44676</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44678</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44690</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44691</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44694</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>44697</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44697</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>44700</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37811,7 +37811,7 @@
         <v>44700</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44705</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44706</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44711</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>44711</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44712</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>44712</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>44712</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         <v>44728</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44739</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38416,7 +38416,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>44762</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44767</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44767</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44768</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44768</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>44781</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
         <v>44781</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>44789</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44790</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39011,7 +39011,7 @@
         <v>44790</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44792</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44792</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>44797</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44798</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44803</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44804</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39606,7 +39606,7 @@
         <v>44806</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39668,7 +39668,7 @@
         <v>44810</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39730,7 +39730,7 @@
         <v>44810</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39787,7 +39787,7 @@
         <v>44811</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39844,7 +39844,7 @@
         <v>44813</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39901,7 +39901,7 @@
         <v>44817</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39963,7 +39963,7 @@
         <v>44817</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44818</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44818</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         <v>44820</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>44825</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>44825</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40325,7 +40325,7 @@
         <v>44825</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>44825</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40439,7 +40439,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40501,7 +40501,7 @@
         <v>44838</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44839</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40625,7 +40625,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44846</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40739,7 +40739,7 @@
         <v>44847</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44847</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44847</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40925,7 +40925,7 @@
         <v>44848</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40982,7 +40982,7 @@
         <v>44862</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41039,7 +41039,7 @@
         <v>44862</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44866</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41158,7 +41158,7 @@
         <v>44867</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>44869</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41272,7 +41272,7 @@
         <v>44872</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44872</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44874</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41562,7 +41562,7 @@
         <v>44883</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>44887</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41701,7 +41701,7 @@
         <v>44887</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41763,7 +41763,7 @@
         <v>44893</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44894</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>44894</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>44895</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>44897</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42125,7 +42125,7 @@
         <v>44903</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42182,7 +42182,7 @@
         <v>44903</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42244,7 +42244,7 @@
         <v>44908</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42301,7 +42301,7 @@
         <v>44908</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>44908</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>44908</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>44908</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>44909</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>44910</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>44910</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>44910</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>44910</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>44910</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>44910</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>44911</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>44911</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>44914</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43124,7 +43124,7 @@
         <v>44914</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         <v>44914</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43248,7 +43248,7 @@
         <v>44914</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43310,7 +43310,7 @@
         <v>44915</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43367,7 +43367,7 @@
         <v>44916</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43424,7 +43424,7 @@
         <v>44918</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43481,7 +43481,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43543,7 +43543,7 @@
         <v>44923</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43600,7 +43600,7 @@
         <v>44930</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43657,7 +43657,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>44939</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43771,7 +43771,7 @@
         <v>44939</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>44942</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>44943</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>44946</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>44946</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         <v>44952</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44128,7 +44128,7 @@
         <v>44952</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44185,7 +44185,7 @@
         <v>44953</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44247,7 +44247,7 @@
         <v>44953</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44304,7 +44304,7 @@
         <v>44958</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44361,7 +44361,7 @@
         <v>44958</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44418,7 +44418,7 @@
         <v>44958</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44475,7 +44475,7 @@
         <v>44959</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44537,7 +44537,7 @@
         <v>44963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44599,7 +44599,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44656,7 +44656,7 @@
         <v>44966</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44713,7 +44713,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44770,7 +44770,7 @@
         <v>44969</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44827,7 +44827,7 @@
         <v>44972</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44884,7 +44884,7 @@
         <v>44972</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44941,7 +44941,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>44978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>44978</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>44979</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>44980</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>44984</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>44986</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>44986</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45526,7 +45526,7 @@
         <v>44986</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45583,7 +45583,7 @@
         <v>44987</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45645,7 +45645,7 @@
         <v>44987</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>44992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>44992</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44993</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45000</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46106,7 +46106,7 @@
         <v>45005</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45005</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45005</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>45008</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46453,7 +46453,7 @@
         <v>45014</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>45015</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>45015</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46686,7 +46686,7 @@
         <v>45019</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46743,7 +46743,7 @@
         <v>45019</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46800,7 +46800,7 @@
         <v>45020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46857,7 +46857,7 @@
         <v>45021</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46914,7 +46914,7 @@
         <v>45022</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46971,7 +46971,7 @@
         <v>45022</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>45022</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>45027</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47162,7 +47162,7 @@
         <v>45027</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47219,7 +47219,7 @@
         <v>45028</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47276,7 +47276,7 @@
         <v>45033</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>45033</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>45033</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45034</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47504,7 +47504,7 @@
         <v>45035</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>45035</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47618,7 +47618,7 @@
         <v>45037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47675,7 +47675,7 @@
         <v>45040</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47732,7 +47732,7 @@
         <v>45041</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47789,7 +47789,7 @@
         <v>45041</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47846,7 +47846,7 @@
         <v>45042</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>45044</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47960,7 +47960,7 @@
         <v>45044</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48022,7 +48022,7 @@
         <v>45048</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48079,7 +48079,7 @@
         <v>45048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48136,7 +48136,7 @@
         <v>45048</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48193,7 +48193,7 @@
         <v>45048</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48250,7 +48250,7 @@
         <v>45048</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48307,7 +48307,7 @@
         <v>45048</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48364,7 +48364,7 @@
         <v>45049</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48421,7 +48421,7 @@
         <v>45050</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48483,7 +48483,7 @@
         <v>45050</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48540,7 +48540,7 @@
         <v>45050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48602,7 +48602,7 @@
         <v>45051</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48659,7 +48659,7 @@
         <v>45054</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48716,7 +48716,7 @@
         <v>45054</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48778,7 +48778,7 @@
         <v>45054</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>45055</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>45055</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>45055</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49006,7 +49006,7 @@
         <v>45055</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49063,7 +49063,7 @@
         <v>45056</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>45057</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49177,7 +49177,7 @@
         <v>45057</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49234,7 +49234,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49291,7 +49291,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49348,7 +49348,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49405,7 +49405,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49462,7 +49462,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49519,7 +49519,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49576,7 +49576,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49638,7 +49638,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49695,7 +49695,7 @@
         <v>45068</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49752,7 +49752,7 @@
         <v>45070</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49814,7 +49814,7 @@
         <v>45071</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49871,7 +49871,7 @@
         <v>45072</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49928,7 +49928,7 @@
         <v>45075</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49990,7 +49990,7 @@
         <v>45075</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50052,7 +50052,7 @@
         <v>45075</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50109,7 +50109,7 @@
         <v>45076</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50171,7 +50171,7 @@
         <v>45078</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50248,7 +50248,7 @@
         <v>45078</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50310,7 +50310,7 @@
         <v>45078</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50372,7 +50372,7 @@
         <v>45078</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45079</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45079</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45079</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50605,7 +50605,7 @@
         <v>45079</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50662,7 +50662,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50719,7 +50719,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50776,7 +50776,7 @@
         <v>45082</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50833,7 +50833,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50895,7 +50895,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50952,7 +50952,7 @@
         <v>45096</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51009,7 +51009,7 @@
         <v>45096</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51066,7 +51066,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51128,7 +51128,7 @@
         <v>45097</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>45098</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45098</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45098</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>45099</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45099</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51480,7 +51480,7 @@
         <v>45099</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51537,7 +51537,7 @@
         <v>45103</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51594,7 +51594,7 @@
         <v>45106</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51651,7 +51651,7 @@
         <v>45110</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51708,7 +51708,7 @@
         <v>45110</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51765,7 +51765,7 @@
         <v>45110</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51822,7 +51822,7 @@
         <v>45111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51879,7 +51879,7 @@
         <v>45118</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51936,7 +51936,7 @@
         <v>45124</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45142</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>45145</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45146</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>45146</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45147</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52293,7 +52293,7 @@
         <v>45147</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>45147</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>45147</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52469,7 +52469,7 @@
         <v>45147</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45147</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45147</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52650,7 +52650,7 @@
         <v>45149</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>45149</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>45160</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52826,7 +52826,7 @@
         <v>45160</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52883,7 +52883,7 @@
         <v>45160</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52940,7 +52940,7 @@
         <v>45162</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52997,7 +52997,7 @@
         <v>45162</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53054,7 +53054,7 @@
         <v>45162</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53116,7 +53116,7 @@
         <v>45168</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>

--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44007</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44174</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44768</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44792</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44830</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>44977</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>45012</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43314</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43318</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43339</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43350</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43362</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43392</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43425</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43434</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43439</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43445</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43448</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43452</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43462</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43467</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43474</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43486</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43497</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43507</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43523</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43528</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43535</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43538</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43539</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43542</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43545</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43552</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43558</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>43573</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43580</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43581</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43585</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43587</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>43588</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>43591</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>43593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>43594</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43595</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43599</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43601</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43605</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43606</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43607</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43609</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43616</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43623</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>43636</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>43640</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43641</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43642</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43643</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43644</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43650</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43651</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43658</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43665</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>43672</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43676</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43690</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43703</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43705</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43706</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43707</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43710</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43713</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43718</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>43719</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43726</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>43728</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>43731</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43732</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15392,7 +15392,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>43745</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43748</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>43756</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43763</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43767</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43769</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43770</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43780</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43782</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43786</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43789</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>43790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43791</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43794</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>43795</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43796</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43797</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43802</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43803</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43807</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43811</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>43812</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>43815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43816</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>43832</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>43832</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>43837</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>43837</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>43843</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43847</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43858</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43859</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43860</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43868</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>43873</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43873</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43875</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>43881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>43881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>43886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>43887</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>43893</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>43893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>43893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>43894</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>43901</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>43901</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>43902</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>43906</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>43909</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>43910</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>43910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>43910</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43921</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43922</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43923</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>43937</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>43942</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>43943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>43944</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>43945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>43945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>43948</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>43949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>43950</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>43951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>43951</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>43951</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>43955</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>43958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>43962</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>43965</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>43966</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>43969</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>43971</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>43971</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>43980</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>43980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>43980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>43984</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>43985</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>43986</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>43992</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>43993</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>43993</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>43999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>43999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44005</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44006</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44011</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44014</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44018</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44018</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44019</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44020</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44020</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44020</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44022</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44025</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44025</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44026</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44026</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44028</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44047</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44055</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44056</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44063</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44064</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44064</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44067</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44067</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44069</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44070</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44070</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44071</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>44071</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44071</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44077</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44077</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44081</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44083</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44084</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44084</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44085</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44088</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         <v>44090</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>44091</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44091</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44092</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44092</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44096</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>44097</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>44098</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44102</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44102</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44104</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44106</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44106</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44109</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44109</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44113</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44113</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44120</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44123</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>44123</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44123</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44124</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44131</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44133</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44133</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44137</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44137</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>44137</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44137</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44144</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44144</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44150</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>44151</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44153</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44153</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44158</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44158</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44162</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44168</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>44168</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44172</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44172</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44174</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44174</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>44174</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>44176</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44177</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44177</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44179</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44179</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>44180</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>44183</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44193</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44195</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44195</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>44201</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>44203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44210</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44216</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44216</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44221</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44223</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44225</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44231</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44232</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44236</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44237</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44237</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44238</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44238</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44239</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44239</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44239</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44239</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44244</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44244</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44249</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44256</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44263</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44285</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44295</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44305</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44308</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44312</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44313</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44316</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44316</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44322</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44330</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44335</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44337</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44349</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44355</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44357</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44361</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44361</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31740,7 +31740,7 @@
         <v>44361</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>44361</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>44362</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44362</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44363</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44368</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32159,7 +32159,7 @@
         <v>44369</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44369</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44378</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44378</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>44378</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44383</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44384</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>44386</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44393</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44404</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44412</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44421</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44439</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44452</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44453</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44454</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44455</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44460</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>44462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44462</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>44463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44473</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44473</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>44475</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>44475</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>44475</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>44475</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>44477</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>44480</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33939,7 +33939,7 @@
         <v>44483</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34001,7 +34001,7 @@
         <v>44484</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>44484</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>44491</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34172,7 +34172,7 @@
         <v>44496</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34229,7 +34229,7 @@
         <v>44496</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34286,7 +34286,7 @@
         <v>44503</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34348,7 +34348,7 @@
         <v>44503</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>44509</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>44511</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44517</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44522</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>44522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44523</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>44524</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34938,7 +34938,7 @@
         <v>44526</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35000,7 +35000,7 @@
         <v>44529</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35062,7 +35062,7 @@
         <v>44529</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>44535</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>44536</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>44536</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>44539</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>44545</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35471,7 +35471,7 @@
         <v>44546</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35533,7 +35533,7 @@
         <v>44546</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
         <v>44557</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>44566</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>44566</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>44568</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>44571</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>44573</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>44574</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35999,7 +35999,7 @@
         <v>44574</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>44578</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         <v>44578</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36175,7 +36175,7 @@
         <v>44592</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         <v>44594</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44607</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36346,7 +36346,7 @@
         <v>44610</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36403,7 +36403,7 @@
         <v>44610</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36460,7 +36460,7 @@
         <v>44610</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>44610</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>44610</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>44613</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>44627</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36745,7 +36745,7 @@
         <v>44627</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44627</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36859,7 +36859,7 @@
         <v>44649</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36916,7 +36916,7 @@
         <v>44649</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36973,7 +36973,7 @@
         <v>44649</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37030,7 +37030,7 @@
         <v>44655</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37087,7 +37087,7 @@
         <v>44658</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37149,7 +37149,7 @@
         <v>44664</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>44670</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>44676</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44678</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44690</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44691</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44694</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>44697</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44697</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>44700</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37811,7 +37811,7 @@
         <v>44700</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44705</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44706</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44711</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>44711</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44712</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>44712</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>44712</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         <v>44728</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44739</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38416,7 +38416,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>44762</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44767</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44767</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44768</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44768</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>44781</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
         <v>44781</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>44789</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44790</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39011,7 +39011,7 @@
         <v>44790</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44792</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44792</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>44797</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44798</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44803</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44804</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39606,7 +39606,7 @@
         <v>44806</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39668,7 +39668,7 @@
         <v>44810</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39730,7 +39730,7 @@
         <v>44810</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39787,7 +39787,7 @@
         <v>44811</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39844,7 +39844,7 @@
         <v>44813</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39901,7 +39901,7 @@
         <v>44817</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39963,7 +39963,7 @@
         <v>44817</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44818</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44818</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         <v>44820</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>44825</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>44825</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40325,7 +40325,7 @@
         <v>44825</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>44825</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40439,7 +40439,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40501,7 +40501,7 @@
         <v>44838</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44839</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40625,7 +40625,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44846</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40739,7 +40739,7 @@
         <v>44847</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44847</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44847</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40925,7 +40925,7 @@
         <v>44848</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40982,7 +40982,7 @@
         <v>44862</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41039,7 +41039,7 @@
         <v>44862</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44866</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41158,7 +41158,7 @@
         <v>44867</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>44869</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41272,7 +41272,7 @@
         <v>44872</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44872</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44874</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41562,7 +41562,7 @@
         <v>44883</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>44887</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41701,7 +41701,7 @@
         <v>44887</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41763,7 +41763,7 @@
         <v>44893</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44894</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>44894</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>44895</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>44897</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42125,7 +42125,7 @@
         <v>44903</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42182,7 +42182,7 @@
         <v>44903</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42244,7 +42244,7 @@
         <v>44908</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42301,7 +42301,7 @@
         <v>44908</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>44908</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>44908</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>44908</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>44909</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>44910</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>44910</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>44910</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>44910</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>44910</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>44910</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>44911</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>44911</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>44914</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43124,7 +43124,7 @@
         <v>44914</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         <v>44914</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43248,7 +43248,7 @@
         <v>44914</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43310,7 +43310,7 @@
         <v>44915</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43367,7 +43367,7 @@
         <v>44916</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43424,7 +43424,7 @@
         <v>44918</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43481,7 +43481,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43543,7 +43543,7 @@
         <v>44923</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43600,7 +43600,7 @@
         <v>44930</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43657,7 +43657,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>44939</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43771,7 +43771,7 @@
         <v>44939</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>44942</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>44943</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>44946</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>44946</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         <v>44952</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44128,7 +44128,7 @@
         <v>44952</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44185,7 +44185,7 @@
         <v>44953</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44247,7 +44247,7 @@
         <v>44953</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44304,7 +44304,7 @@
         <v>44958</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44361,7 +44361,7 @@
         <v>44958</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44418,7 +44418,7 @@
         <v>44958</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44475,7 +44475,7 @@
         <v>44959</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44537,7 +44537,7 @@
         <v>44963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44599,7 +44599,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44656,7 +44656,7 @@
         <v>44966</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44713,7 +44713,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44770,7 +44770,7 @@
         <v>44969</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44827,7 +44827,7 @@
         <v>44972</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44884,7 +44884,7 @@
         <v>44972</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44941,7 +44941,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>44978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>44978</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>44979</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>44980</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>44984</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>44986</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>44986</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45526,7 +45526,7 @@
         <v>44986</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45583,7 +45583,7 @@
         <v>44987</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45645,7 +45645,7 @@
         <v>44987</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>44992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>44992</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44993</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45000</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46106,7 +46106,7 @@
         <v>45005</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45005</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45005</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>45008</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46453,7 +46453,7 @@
         <v>45014</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>45015</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>45015</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46686,7 +46686,7 @@
         <v>45019</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46743,7 +46743,7 @@
         <v>45019</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46800,7 +46800,7 @@
         <v>45020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46857,7 +46857,7 @@
         <v>45021</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46914,7 +46914,7 @@
         <v>45022</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46971,7 +46971,7 @@
         <v>45022</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>45022</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>45027</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47162,7 +47162,7 @@
         <v>45027</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47219,7 +47219,7 @@
         <v>45028</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47276,7 +47276,7 @@
         <v>45033</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>45033</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>45033</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45034</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47504,7 +47504,7 @@
         <v>45035</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>45035</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47618,7 +47618,7 @@
         <v>45037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47675,7 +47675,7 @@
         <v>45040</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47732,7 +47732,7 @@
         <v>45041</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47789,7 +47789,7 @@
         <v>45041</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47846,7 +47846,7 @@
         <v>45042</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>45044</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47960,7 +47960,7 @@
         <v>45044</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48022,7 +48022,7 @@
         <v>45048</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48079,7 +48079,7 @@
         <v>45048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48136,7 +48136,7 @@
         <v>45048</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48193,7 +48193,7 @@
         <v>45048</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48250,7 +48250,7 @@
         <v>45048</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48307,7 +48307,7 @@
         <v>45048</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48364,7 +48364,7 @@
         <v>45049</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48421,7 +48421,7 @@
         <v>45050</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48483,7 +48483,7 @@
         <v>45050</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48540,7 +48540,7 @@
         <v>45050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48602,7 +48602,7 @@
         <v>45051</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48659,7 +48659,7 @@
         <v>45054</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48716,7 +48716,7 @@
         <v>45054</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48778,7 +48778,7 @@
         <v>45054</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>45055</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>45055</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>45055</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49006,7 +49006,7 @@
         <v>45055</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49063,7 +49063,7 @@
         <v>45056</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>45057</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49177,7 +49177,7 @@
         <v>45057</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49234,7 +49234,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49291,7 +49291,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49348,7 +49348,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49405,7 +49405,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49462,7 +49462,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49519,7 +49519,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49576,7 +49576,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49638,7 +49638,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49695,7 +49695,7 @@
         <v>45068</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49752,7 +49752,7 @@
         <v>45070</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49814,7 +49814,7 @@
         <v>45071</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49871,7 +49871,7 @@
         <v>45072</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49928,7 +49928,7 @@
         <v>45075</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49990,7 +49990,7 @@
         <v>45075</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50052,7 +50052,7 @@
         <v>45075</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50109,7 +50109,7 @@
         <v>45076</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50171,7 +50171,7 @@
         <v>45078</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50248,7 +50248,7 @@
         <v>45078</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50310,7 +50310,7 @@
         <v>45078</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50372,7 +50372,7 @@
         <v>45078</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45079</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45079</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45079</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50605,7 +50605,7 @@
         <v>45079</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50662,7 +50662,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50719,7 +50719,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50776,7 +50776,7 @@
         <v>45082</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50833,7 +50833,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50895,7 +50895,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50952,7 +50952,7 @@
         <v>45096</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51009,7 +51009,7 @@
         <v>45096</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51066,7 +51066,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51128,7 +51128,7 @@
         <v>45097</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>45098</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45098</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45098</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>45099</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45099</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51480,7 +51480,7 @@
         <v>45099</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51537,7 +51537,7 @@
         <v>45103</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51594,7 +51594,7 @@
         <v>45106</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51651,7 +51651,7 @@
         <v>45110</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51708,7 +51708,7 @@
         <v>45110</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51765,7 +51765,7 @@
         <v>45110</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51822,7 +51822,7 @@
         <v>45111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51879,7 +51879,7 @@
         <v>45118</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51936,7 +51936,7 @@
         <v>45124</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45142</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>45145</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45146</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>45146</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45147</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52293,7 +52293,7 @@
         <v>45147</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>45147</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>45147</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52469,7 +52469,7 @@
         <v>45147</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45147</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45147</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52650,7 +52650,7 @@
         <v>45149</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>45149</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>45160</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52826,7 +52826,7 @@
         <v>45160</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52883,7 +52883,7 @@
         <v>45160</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52940,7 +52940,7 @@
         <v>45162</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52997,7 +52997,7 @@
         <v>45162</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53054,7 +53054,7 @@
         <v>45162</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53116,7 +53116,7 @@
         <v>45168</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>

--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y866"/>
+  <dimension ref="A1:Y868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44007</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44174</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44768</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44792</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44830</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>44977</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>45012</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43314</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43318</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43339</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43350</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43362</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43392</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43425</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43434</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43439</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43445</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43448</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43452</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43462</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43467</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43474</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43486</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43497</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43507</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43523</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43528</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43535</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43538</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43539</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43542</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43545</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43552</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43558</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>43573</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43580</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43581</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43585</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43587</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>43588</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>43591</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>43593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>43594</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43595</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43599</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43601</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43605</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43606</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43607</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43609</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43616</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43623</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>43636</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>43640</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43641</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43642</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43643</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43644</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43650</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43651</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43658</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43665</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>43672</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43676</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43690</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43703</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43705</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43706</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43707</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43710</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43713</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43718</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>43719</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43726</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>43728</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>43731</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43732</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15392,7 +15392,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>43745</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43748</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>43756</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43763</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43767</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43769</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43770</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43780</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43782</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43786</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43789</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>43790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43791</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43794</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>43795</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43796</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43797</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43802</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43803</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43807</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43811</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>43812</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>43815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43816</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>43832</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>43832</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>43837</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>43837</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>43843</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43847</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43858</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43859</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43860</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43868</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>43873</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43873</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43875</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>43881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>43881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>43886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>43887</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>43893</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>43893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>43893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>43894</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>43901</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>43901</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>43902</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>43906</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>43909</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>43910</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>43910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>43910</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43921</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43922</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43923</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>43937</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>43942</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>43943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>43944</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>43945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>43945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>43948</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>43949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>43950</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>43951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>43951</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>43951</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>43955</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>43958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>43962</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>43965</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>43966</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>43969</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>43971</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>43971</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>43980</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>43980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>43980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>43984</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>43985</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>43986</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>43992</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>43993</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>43993</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>43999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>43999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44005</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44006</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44011</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44014</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44018</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44018</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44019</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44020</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44020</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44020</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44022</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44025</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44025</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44026</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44026</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44028</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44047</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44055</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44056</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44063</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44064</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44064</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44067</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44067</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44069</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44070</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44070</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44071</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>44071</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44071</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44077</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44077</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44081</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44083</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44084</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44084</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44085</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44088</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         <v>44090</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>44091</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44091</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44092</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44092</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44096</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>44097</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>44098</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44102</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44102</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44104</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44106</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44106</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44109</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44109</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44113</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44113</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44120</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44123</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>44123</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44123</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44124</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44131</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44133</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44133</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44137</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44137</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>44137</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44137</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44144</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44144</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44150</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>44151</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44153</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44153</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44158</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44158</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44162</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44168</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>44168</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44172</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44172</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44174</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44174</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>44174</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>44176</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44177</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44177</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44179</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44179</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>44180</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>44183</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44193</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44195</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44195</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>44201</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>44203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44210</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44216</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44216</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44221</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44223</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44225</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44231</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44232</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44236</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44237</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44237</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44238</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44238</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44239</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44239</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44239</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44239</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44244</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44244</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44249</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44256</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44263</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44285</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44295</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44305</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44308</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44312</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44313</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44316</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44316</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44322</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44330</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44335</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44337</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44349</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44355</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44357</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44361</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44361</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31740,7 +31740,7 @@
         <v>44361</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>44361</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>44362</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44362</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44363</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44368</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32159,7 +32159,7 @@
         <v>44369</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44369</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44378</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44378</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>44378</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44383</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44384</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>44386</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44393</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44404</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44412</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44421</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44439</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44452</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44453</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44454</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44455</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44460</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>44462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44462</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>44463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44473</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44473</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>44475</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>44475</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>44475</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>44475</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>44477</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>44480</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33939,7 +33939,7 @@
         <v>44483</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34001,7 +34001,7 @@
         <v>44484</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>44484</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>44491</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34172,7 +34172,7 @@
         <v>44496</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34229,7 +34229,7 @@
         <v>44496</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34286,7 +34286,7 @@
         <v>44503</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34348,7 +34348,7 @@
         <v>44503</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>44509</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>44511</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44517</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44522</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>44522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44523</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>44524</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34938,7 +34938,7 @@
         <v>44526</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35000,7 +35000,7 @@
         <v>44529</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35062,7 +35062,7 @@
         <v>44529</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>44535</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>44536</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>44536</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>44539</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>44545</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35471,7 +35471,7 @@
         <v>44546</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35533,7 +35533,7 @@
         <v>44546</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
         <v>44557</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>44566</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>44566</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>44568</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>44571</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>44573</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>44574</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35999,7 +35999,7 @@
         <v>44574</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>44578</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         <v>44578</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36175,7 +36175,7 @@
         <v>44592</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         <v>44594</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44607</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36346,7 +36346,7 @@
         <v>44610</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36403,7 +36403,7 @@
         <v>44610</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36460,7 +36460,7 @@
         <v>44610</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>44610</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>44610</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>44613</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>44627</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36745,7 +36745,7 @@
         <v>44627</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44627</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36859,7 +36859,7 @@
         <v>44649</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36916,7 +36916,7 @@
         <v>44649</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36973,7 +36973,7 @@
         <v>44649</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37030,7 +37030,7 @@
         <v>44655</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37087,7 +37087,7 @@
         <v>44658</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37149,7 +37149,7 @@
         <v>44664</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>44670</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>44676</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44678</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44690</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44691</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44694</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>44697</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44697</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>44700</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37811,7 +37811,7 @@
         <v>44700</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44705</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44706</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44711</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>44711</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44712</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>44712</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>44712</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         <v>44728</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44739</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38416,7 +38416,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>44762</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44767</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44767</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44768</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44768</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>44781</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
         <v>44781</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>44789</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44790</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39011,7 +39011,7 @@
         <v>44790</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44792</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44792</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>44797</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44798</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44803</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44804</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39606,7 +39606,7 @@
         <v>44806</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39668,7 +39668,7 @@
         <v>44810</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39730,7 +39730,7 @@
         <v>44810</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39787,7 +39787,7 @@
         <v>44811</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39844,7 +39844,7 @@
         <v>44813</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39901,7 +39901,7 @@
         <v>44817</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39963,7 +39963,7 @@
         <v>44817</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44818</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44818</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         <v>44820</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>44825</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>44825</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40325,7 +40325,7 @@
         <v>44825</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>44825</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40439,7 +40439,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40501,7 +40501,7 @@
         <v>44838</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44839</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40625,7 +40625,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44846</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40739,7 +40739,7 @@
         <v>44847</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44847</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44847</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40925,7 +40925,7 @@
         <v>44848</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40982,7 +40982,7 @@
         <v>44862</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41039,7 +41039,7 @@
         <v>44862</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44866</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41158,7 +41158,7 @@
         <v>44867</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>44869</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41272,7 +41272,7 @@
         <v>44872</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44872</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44874</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41562,7 +41562,7 @@
         <v>44883</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>44887</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41701,7 +41701,7 @@
         <v>44887</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41763,7 +41763,7 @@
         <v>44893</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44894</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>44894</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>44895</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>44897</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42125,7 +42125,7 @@
         <v>44903</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42182,7 +42182,7 @@
         <v>44903</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42244,7 +42244,7 @@
         <v>44908</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42301,7 +42301,7 @@
         <v>44908</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>44908</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>44908</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>44908</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>44909</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>44910</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>44910</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>44910</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>44910</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>44910</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>44910</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>44911</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>44911</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>44914</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43124,7 +43124,7 @@
         <v>44914</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         <v>44914</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43248,7 +43248,7 @@
         <v>44914</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43310,7 +43310,7 @@
         <v>44915</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43367,7 +43367,7 @@
         <v>44916</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43424,7 +43424,7 @@
         <v>44918</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43481,7 +43481,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43543,7 +43543,7 @@
         <v>44923</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43600,7 +43600,7 @@
         <v>44930</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43657,7 +43657,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>44939</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43771,7 +43771,7 @@
         <v>44939</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>44942</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>44943</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>44946</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>44946</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         <v>44952</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44128,7 +44128,7 @@
         <v>44952</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44185,7 +44185,7 @@
         <v>44953</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44247,7 +44247,7 @@
         <v>44953</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44304,7 +44304,7 @@
         <v>44958</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44361,7 +44361,7 @@
         <v>44958</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44418,7 +44418,7 @@
         <v>44958</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44475,7 +44475,7 @@
         <v>44959</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44537,7 +44537,7 @@
         <v>44963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44599,7 +44599,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44656,7 +44656,7 @@
         <v>44966</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44713,7 +44713,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44770,7 +44770,7 @@
         <v>44969</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44827,7 +44827,7 @@
         <v>44972</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44884,7 +44884,7 @@
         <v>44972</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44941,7 +44941,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>44978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>44978</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>44979</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>44980</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>44984</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>44986</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>44986</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45526,7 +45526,7 @@
         <v>44986</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45583,7 +45583,7 @@
         <v>44987</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45645,7 +45645,7 @@
         <v>44987</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>44992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>44992</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44993</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45000</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46106,7 +46106,7 @@
         <v>45005</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45005</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45005</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>45008</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46453,7 +46453,7 @@
         <v>45014</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>45015</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>45015</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46686,7 +46686,7 @@
         <v>45019</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46743,7 +46743,7 @@
         <v>45019</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46800,7 +46800,7 @@
         <v>45020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46857,7 +46857,7 @@
         <v>45021</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46914,7 +46914,7 @@
         <v>45022</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46971,7 +46971,7 @@
         <v>45022</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>45022</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>45027</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47162,7 +47162,7 @@
         <v>45027</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47219,7 +47219,7 @@
         <v>45028</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47276,7 +47276,7 @@
         <v>45033</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>45033</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>45033</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45034</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47504,7 +47504,7 @@
         <v>45035</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>45035</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47618,7 +47618,7 @@
         <v>45037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47675,7 +47675,7 @@
         <v>45040</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47732,7 +47732,7 @@
         <v>45041</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47789,7 +47789,7 @@
         <v>45041</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47846,7 +47846,7 @@
         <v>45042</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>45044</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47960,7 +47960,7 @@
         <v>45044</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48022,7 +48022,7 @@
         <v>45048</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48079,7 +48079,7 @@
         <v>45048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48136,7 +48136,7 @@
         <v>45048</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48193,7 +48193,7 @@
         <v>45048</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48250,7 +48250,7 @@
         <v>45048</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48307,7 +48307,7 @@
         <v>45048</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48364,7 +48364,7 @@
         <v>45049</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48421,7 +48421,7 @@
         <v>45050</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48483,7 +48483,7 @@
         <v>45050</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48540,7 +48540,7 @@
         <v>45050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48602,7 +48602,7 @@
         <v>45051</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48659,7 +48659,7 @@
         <v>45054</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48716,7 +48716,7 @@
         <v>45054</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48778,7 +48778,7 @@
         <v>45054</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>45055</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>45055</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>45055</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49006,7 +49006,7 @@
         <v>45055</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49063,7 +49063,7 @@
         <v>45056</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>45057</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49177,7 +49177,7 @@
         <v>45057</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49234,7 +49234,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49291,7 +49291,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49348,7 +49348,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49405,7 +49405,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49462,7 +49462,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49519,7 +49519,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49576,7 +49576,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49638,7 +49638,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49695,7 +49695,7 @@
         <v>45068</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49752,7 +49752,7 @@
         <v>45070</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49814,7 +49814,7 @@
         <v>45071</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49871,7 +49871,7 @@
         <v>45072</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49928,7 +49928,7 @@
         <v>45075</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49990,7 +49990,7 @@
         <v>45075</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50052,7 +50052,7 @@
         <v>45075</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50109,7 +50109,7 @@
         <v>45076</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50171,7 +50171,7 @@
         <v>45078</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50248,7 +50248,7 @@
         <v>45078</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50310,7 +50310,7 @@
         <v>45078</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50372,7 +50372,7 @@
         <v>45078</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45079</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45079</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45079</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50605,7 +50605,7 @@
         <v>45079</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50662,7 +50662,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50719,7 +50719,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50776,7 +50776,7 @@
         <v>45082</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50833,7 +50833,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50895,7 +50895,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50952,7 +50952,7 @@
         <v>45096</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51009,7 +51009,7 @@
         <v>45096</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51066,7 +51066,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51128,7 +51128,7 @@
         <v>45097</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>45098</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45098</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45098</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>45099</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45099</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51480,7 +51480,7 @@
         <v>45099</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51537,7 +51537,7 @@
         <v>45103</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51594,7 +51594,7 @@
         <v>45106</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51651,7 +51651,7 @@
         <v>45110</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51708,7 +51708,7 @@
         <v>45110</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51765,7 +51765,7 @@
         <v>45110</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51822,7 +51822,7 @@
         <v>45111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51879,7 +51879,7 @@
         <v>45118</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51936,7 +51936,7 @@
         <v>45124</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45142</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>45145</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45146</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>45146</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45147</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52293,7 +52293,7 @@
         <v>45147</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>45147</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>45147</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52469,7 +52469,7 @@
         <v>45147</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45147</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45147</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52650,7 +52650,7 @@
         <v>45149</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>45149</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>45160</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52826,7 +52826,7 @@
         <v>45160</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52883,7 +52883,7 @@
         <v>45160</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52940,7 +52940,7 @@
         <v>45162</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52997,7 +52997,7 @@
         <v>45162</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53054,7 +53054,7 @@
         <v>45162</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
       </c>
       <c r="R865" s="2" t="inlineStr"/>
     </row>
-    <row r="866">
+    <row r="866" ht="15" customHeight="1">
       <c r="A866" t="inlineStr">
         <is>
           <t>A 39950-2023</t>
@@ -53116,7 +53116,7 @@
         <v>45168</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53162,6 +53162,125 @@
         <v>0</v>
       </c>
       <c r="R866" s="2" t="inlineStr"/>
+    </row>
+    <row r="867" ht="15" customHeight="1">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>A 41433-2023</t>
+        </is>
+      </c>
+      <c r="B867" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C867" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>HUDIKSVALL</t>
+        </is>
+      </c>
+      <c r="G867" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H867" t="n">
+        <v>0</v>
+      </c>
+      <c r="I867" t="n">
+        <v>0</v>
+      </c>
+      <c r="J867" t="n">
+        <v>0</v>
+      </c>
+      <c r="K867" t="n">
+        <v>0</v>
+      </c>
+      <c r="L867" t="n">
+        <v>0</v>
+      </c>
+      <c r="M867" t="n">
+        <v>0</v>
+      </c>
+      <c r="N867" t="n">
+        <v>0</v>
+      </c>
+      <c r="O867" t="n">
+        <v>0</v>
+      </c>
+      <c r="P867" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q867" t="n">
+        <v>0</v>
+      </c>
+      <c r="R867" s="2" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>A 41735-2023</t>
+        </is>
+      </c>
+      <c r="B868" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C868" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>HUDIKSVALL</t>
+        </is>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G868" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H868" t="n">
+        <v>0</v>
+      </c>
+      <c r="I868" t="n">
+        <v>0</v>
+      </c>
+      <c r="J868" t="n">
+        <v>0</v>
+      </c>
+      <c r="K868" t="n">
+        <v>0</v>
+      </c>
+      <c r="L868" t="n">
+        <v>0</v>
+      </c>
+      <c r="M868" t="n">
+        <v>0</v>
+      </c>
+      <c r="N868" t="n">
+        <v>0</v>
+      </c>
+      <c r="O868" t="n">
+        <v>0</v>
+      </c>
+      <c r="P868" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q868" t="n">
+        <v>0</v>
+      </c>
+      <c r="R868" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44007</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44174</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44768</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44792</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44830</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>44977</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>45012</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43314</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43318</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43339</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43350</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43357</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43362</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43374</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43383</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43392</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43418</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43425</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43434</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43439</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43445</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43448</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43452</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43462</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43467</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43474</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43486</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43497</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43507</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43523</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43528</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43535</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43538</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43539</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43542</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43545</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43552</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>43558</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>43572</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>43573</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43580</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43581</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43585</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43587</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>43588</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>43591</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>43593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>43594</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43595</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43599</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43600</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43601</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43605</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43606</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43607</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43609</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43616</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43623</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43627</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>43636</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>43640</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43641</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43642</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43643</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43644</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>43647</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>43650</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43651</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43658</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43665</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>43672</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>43676</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>43690</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43703</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43705</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43706</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43707</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43710</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43713</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43718</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>43719</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43726</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>43728</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>43731</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43732</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>43734</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15392,7 +15392,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>43741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>43745</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43748</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>43756</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43763</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43767</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43769</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43770</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>43780</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>43782</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>43786</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43789</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>43790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43791</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>43794</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>43795</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43796</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43797</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43802</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43803</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43807</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43811</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>43812</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>43815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43816</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>43832</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>43832</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>43837</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>43837</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>43843</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>43847</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>43852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>43858</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>43859</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43860</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43868</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>43873</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43873</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43875</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>43881</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>43881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>43886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>43887</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>43893</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>43893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>43893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>43894</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>43901</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>43901</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>43902</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>43906</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>43909</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>43910</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>43910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>43910</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43921</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43922</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43923</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>43937</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>43942</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>43943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>43944</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>43945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>43945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>43948</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>43949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>43950</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>43951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>43951</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>43951</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>43955</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>43958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>43962</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>43965</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>43966</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>43969</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>43971</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>43971</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>43980</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>43980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>43980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>43984</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>43985</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>43986</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>43992</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>43993</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>43993</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>43999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>43999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44005</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44006</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44011</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44014</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44018</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44018</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44019</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44020</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44020</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44020</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44022</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44025</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44025</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44026</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44026</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44028</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44047</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44055</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44056</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44063</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44064</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44064</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44067</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44067</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44069</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44070</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44070</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44071</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>44071</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44071</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44077</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44077</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44081</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44083</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44084</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44084</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44085</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44088</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         <v>44090</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>44091</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44091</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44092</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44092</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44096</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>44097</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>44098</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44102</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44102</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44104</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44106</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44106</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44109</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44109</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44113</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44113</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44120</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44123</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>44123</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44123</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44124</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44131</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44133</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44133</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44137</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44137</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>44137</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44137</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44144</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44144</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44150</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>44151</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44153</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44153</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44158</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44158</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>44162</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>44168</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>44168</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44172</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44172</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44174</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44174</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>44174</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>44176</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>44177</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44177</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44179</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44179</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>44180</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>44183</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44193</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44195</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44195</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>44201</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>44203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44210</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44216</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44216</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44221</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44223</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44225</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>44231</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44232</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44236</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44237</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44237</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>44238</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>44238</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>44239</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44239</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44239</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>44239</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44244</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44244</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>44249</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44256</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44263</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44285</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44295</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44305</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44308</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44312</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44313</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44316</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44316</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44322</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44330</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44335</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44337</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44349</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44355</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44357</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44361</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44361</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31740,7 +31740,7 @@
         <v>44361</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>44361</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>44362</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44362</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44363</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44368</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32159,7 +32159,7 @@
         <v>44369</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44369</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44378</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44378</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>44378</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44383</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44384</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>44386</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44393</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>44404</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44412</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44421</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44439</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44452</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44453</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44454</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44455</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44460</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>44462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>44462</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>44463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44473</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44473</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>44475</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>44475</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>44475</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>44475</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>44477</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>44480</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33939,7 +33939,7 @@
         <v>44483</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34001,7 +34001,7 @@
         <v>44484</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>44484</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>44491</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34172,7 +34172,7 @@
         <v>44496</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34229,7 +34229,7 @@
         <v>44496</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34286,7 +34286,7 @@
         <v>44503</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34348,7 +34348,7 @@
         <v>44503</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>44509</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>44511</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44517</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44522</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>44522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44523</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34881,7 +34881,7 @@
         <v>44524</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34938,7 +34938,7 @@
         <v>44526</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35000,7 +35000,7 @@
         <v>44529</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35062,7 +35062,7 @@
         <v>44529</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>44535</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>44536</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>44536</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>44539</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>44545</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35471,7 +35471,7 @@
         <v>44546</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35533,7 +35533,7 @@
         <v>44546</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
         <v>44557</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>44566</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>44566</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>44568</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>44571</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>44573</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>44574</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35999,7 +35999,7 @@
         <v>44574</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>44578</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         <v>44578</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36175,7 +36175,7 @@
         <v>44592</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         <v>44594</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44607</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36346,7 +36346,7 @@
         <v>44610</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36403,7 +36403,7 @@
         <v>44610</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36460,7 +36460,7 @@
         <v>44610</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>44610</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>44610</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>44613</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>44627</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36745,7 +36745,7 @@
         <v>44627</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>44627</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36859,7 +36859,7 @@
         <v>44649</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36916,7 +36916,7 @@
         <v>44649</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36973,7 +36973,7 @@
         <v>44649</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37030,7 +37030,7 @@
         <v>44655</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37087,7 +37087,7 @@
         <v>44658</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37149,7 +37149,7 @@
         <v>44664</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>44670</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>44676</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44678</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44690</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44691</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44694</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>44697</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44697</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>44700</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37811,7 +37811,7 @@
         <v>44700</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44705</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44706</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44711</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>44711</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44712</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>44712</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>44712</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         <v>44728</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44739</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38416,7 +38416,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>44762</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44767</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44767</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44768</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44768</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>44781</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
         <v>44781</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>44789</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44790</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39011,7 +39011,7 @@
         <v>44790</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39073,7 +39073,7 @@
         <v>44792</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39135,7 +39135,7 @@
         <v>44792</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>44797</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39373,7 +39373,7 @@
         <v>44798</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44803</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39544,7 +39544,7 @@
         <v>44804</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39606,7 +39606,7 @@
         <v>44806</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39668,7 +39668,7 @@
         <v>44810</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39730,7 +39730,7 @@
         <v>44810</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39787,7 +39787,7 @@
         <v>44811</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39844,7 +39844,7 @@
         <v>44813</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39901,7 +39901,7 @@
         <v>44817</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39963,7 +39963,7 @@
         <v>44817</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44818</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44818</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         <v>44820</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>44825</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>44825</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40325,7 +40325,7 @@
         <v>44825</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>44825</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40439,7 +40439,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40501,7 +40501,7 @@
         <v>44838</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44839</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40625,7 +40625,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44846</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40739,7 +40739,7 @@
         <v>44847</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44847</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44847</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40925,7 +40925,7 @@
         <v>44848</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40982,7 +40982,7 @@
         <v>44862</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41039,7 +41039,7 @@
         <v>44862</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44866</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41158,7 +41158,7 @@
         <v>44867</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>44869</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41272,7 +41272,7 @@
         <v>44872</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44872</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44874</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41505,7 +41505,7 @@
         <v>44882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41562,7 +41562,7 @@
         <v>44883</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>44887</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41701,7 +41701,7 @@
         <v>44887</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41763,7 +41763,7 @@
         <v>44893</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44894</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>44894</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>44895</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>44897</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42125,7 +42125,7 @@
         <v>44903</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42182,7 +42182,7 @@
         <v>44903</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42244,7 +42244,7 @@
         <v>44908</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42301,7 +42301,7 @@
         <v>44908</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>44908</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>44908</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>44908</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>44909</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>44910</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>44910</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>44910</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>44910</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>44910</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>44910</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>44911</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>44911</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>44914</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43124,7 +43124,7 @@
         <v>44914</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         <v>44914</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43248,7 +43248,7 @@
         <v>44914</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43310,7 +43310,7 @@
         <v>44915</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43367,7 +43367,7 @@
         <v>44916</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43424,7 +43424,7 @@
         <v>44918</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43481,7 +43481,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43543,7 +43543,7 @@
         <v>44923</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43600,7 +43600,7 @@
         <v>44930</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43657,7 +43657,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>44939</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43771,7 +43771,7 @@
         <v>44939</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43833,7 +43833,7 @@
         <v>44942</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43890,7 +43890,7 @@
         <v>44943</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43947,7 +43947,7 @@
         <v>44946</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44009,7 +44009,7 @@
         <v>44946</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         <v>44952</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44128,7 +44128,7 @@
         <v>44952</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44185,7 +44185,7 @@
         <v>44953</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44247,7 +44247,7 @@
         <v>44953</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44304,7 +44304,7 @@
         <v>44958</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44361,7 +44361,7 @@
         <v>44958</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44418,7 +44418,7 @@
         <v>44958</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44475,7 +44475,7 @@
         <v>44959</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44537,7 +44537,7 @@
         <v>44963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44599,7 +44599,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44656,7 +44656,7 @@
         <v>44966</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44713,7 +44713,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44770,7 +44770,7 @@
         <v>44969</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44827,7 +44827,7 @@
         <v>44972</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44884,7 +44884,7 @@
         <v>44972</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44941,7 +44941,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>44978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>44978</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>44979</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>44980</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>44984</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>44986</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>44986</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45526,7 +45526,7 @@
         <v>44986</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45583,7 +45583,7 @@
         <v>44987</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45645,7 +45645,7 @@
         <v>44987</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>44992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>44992</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44993</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45000</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46106,7 +46106,7 @@
         <v>45005</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45005</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45005</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>45008</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46453,7 +46453,7 @@
         <v>45014</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>45015</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
         <v>45015</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46686,7 +46686,7 @@
         <v>45019</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46743,7 +46743,7 @@
         <v>45019</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46800,7 +46800,7 @@
         <v>45020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46857,7 +46857,7 @@
         <v>45021</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46914,7 +46914,7 @@
         <v>45022</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46971,7 +46971,7 @@
         <v>45022</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>45022</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>45027</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47162,7 +47162,7 @@
         <v>45027</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47219,7 +47219,7 @@
         <v>45028</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47276,7 +47276,7 @@
         <v>45033</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>45033</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>45033</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45034</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47504,7 +47504,7 @@
         <v>45035</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>45035</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47618,7 +47618,7 @@
         <v>45037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47675,7 +47675,7 @@
         <v>45040</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47732,7 +47732,7 @@
         <v>45041</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47789,7 +47789,7 @@
         <v>45041</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47846,7 +47846,7 @@
         <v>45042</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>45044</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47960,7 +47960,7 @@
         <v>45044</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48022,7 +48022,7 @@
         <v>45048</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48079,7 +48079,7 @@
         <v>45048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48136,7 +48136,7 @@
         <v>45048</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48193,7 +48193,7 @@
         <v>45048</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48250,7 +48250,7 @@
         <v>45048</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48307,7 +48307,7 @@
         <v>45048</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48364,7 +48364,7 @@
         <v>45049</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48421,7 +48421,7 @@
         <v>45050</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48483,7 +48483,7 @@
         <v>45050</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48540,7 +48540,7 @@
         <v>45050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48602,7 +48602,7 @@
         <v>45051</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48659,7 +48659,7 @@
         <v>45054</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48716,7 +48716,7 @@
         <v>45054</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48778,7 +48778,7 @@
         <v>45054</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>45055</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>45055</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>45055</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49006,7 +49006,7 @@
         <v>45055</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49063,7 +49063,7 @@
         <v>45056</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>45057</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49177,7 +49177,7 @@
         <v>45057</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49234,7 +49234,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49291,7 +49291,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49348,7 +49348,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49405,7 +49405,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49462,7 +49462,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49519,7 +49519,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49576,7 +49576,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49638,7 +49638,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49695,7 +49695,7 @@
         <v>45068</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49752,7 +49752,7 @@
         <v>45070</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49814,7 +49814,7 @@
         <v>45071</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49871,7 +49871,7 @@
         <v>45072</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49928,7 +49928,7 @@
         <v>45075</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49990,7 +49990,7 @@
         <v>45075</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50052,7 +50052,7 @@
         <v>45075</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50109,7 +50109,7 @@
         <v>45076</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50171,7 +50171,7 @@
         <v>45078</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50248,7 +50248,7 @@
         <v>45078</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50310,7 +50310,7 @@
         <v>45078</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50372,7 +50372,7 @@
         <v>45078</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45079</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45079</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45079</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50605,7 +50605,7 @@
         <v>45079</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50662,7 +50662,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50719,7 +50719,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50776,7 +50776,7 @@
         <v>45082</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50833,7 +50833,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50895,7 +50895,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50952,7 +50952,7 @@
         <v>45096</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51009,7 +51009,7 @@
         <v>45096</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51066,7 +51066,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51128,7 +51128,7 @@
         <v>45097</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>45098</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
         <v>45098</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45098</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51366,7 +51366,7 @@
         <v>45099</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>45099</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51480,7 +51480,7 @@
         <v>45099</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51537,7 +51537,7 @@
         <v>45103</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51594,7 +51594,7 @@
         <v>45106</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51651,7 +51651,7 @@
         <v>45110</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51708,7 +51708,7 @@
         <v>45110</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51765,7 +51765,7 @@
         <v>45110</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51822,7 +51822,7 @@
         <v>45111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51879,7 +51879,7 @@
         <v>45118</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51936,7 +51936,7 @@
         <v>45124</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51993,7 +51993,7 @@
         <v>45142</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>45145</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45146</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>45146</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45147</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52293,7 +52293,7 @@
         <v>45147</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>45147</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>45147</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52469,7 +52469,7 @@
         <v>45147</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45147</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45147</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52650,7 +52650,7 @@
         <v>45149</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>45149</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>45160</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52826,7 +52826,7 @@
         <v>45160</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52883,7 +52883,7 @@
         <v>45160</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52940,7 +52940,7 @@
         <v>45162</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52997,7 +52997,7 @@
         <v>45162</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53054,7 +53054,7 @@
         <v>45162</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53116,7 +53116,7 @@
         <v>45168</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53173,7 +53173,7 @@
         <v>45175</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53230,7 +53230,7 @@
         <v>45176</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>

--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43942</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44007</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44174</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44526</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44726</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44768</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44792</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44977</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>45012</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43314</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43318</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43328</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43339</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43362</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43369</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43377</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43383</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43392</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43418</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43452</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43497</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43507</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43528</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43538</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43539</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43542</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43545</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43552</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43558</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43580</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43581</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43585</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43588</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43591</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43594</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43595</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43599</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43605</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>43606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>43607</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>43609</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>43612</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>43613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43616</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>43623</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43640</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43641</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>43642</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43643</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>43644</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43651</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43658</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43665</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43672</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43676</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43690</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43713</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>43718</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>43720</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>43721</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>43725</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>43726</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43727</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43731</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>43733</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43734</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43738</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>43740</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>43741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43745</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43748</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43770</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43775</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>43776</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>43780</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>43782</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>43783</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43786</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>43790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>43791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>43795</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43796</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43797</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43803</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43807</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43811</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43812</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>43816</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>43832</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>43832</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43837</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>43837</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>43843</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>43847</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>43860</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>43867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43873</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>43873</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>43875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>43875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>43887</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>43893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>43893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>43894</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>43901</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43906</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43909</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>43910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>43910</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>43910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43921</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43922</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>43923</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>43937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43944</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>43945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>43945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43948</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43950</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43951</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43951</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>43955</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>43958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>43962</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43965</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>43966</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43969</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>43971</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>43971</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>43980</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>43980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>43984</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>43985</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>43986</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>43992</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>43993</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>43993</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>43999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>43999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44005</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44006</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44011</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44014</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44018</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44018</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44019</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44020</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44020</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44020</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>44022</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44025</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44025</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44026</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44026</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44028</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44047</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44055</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44056</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44063</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44064</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44064</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44067</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44067</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44069</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44070</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44070</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44071</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44071</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44071</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>44077</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>44077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>44077</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44081</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44083</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44084</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44084</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44085</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44088</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44090</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44091</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44091</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44092</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44092</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44096</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44097</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44098</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44102</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44102</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44104</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44106</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>44106</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>44109</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44109</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44113</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44113</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44120</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44123</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44123</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44123</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44124</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44131</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44133</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44133</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44137</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>44137</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44137</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44137</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44144</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44144</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44150</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44151</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44153</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44153</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44158</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44158</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44162</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44168</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44168</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44172</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44172</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44174</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44174</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44174</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44176</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44177</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>44177</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>44179</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44179</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44180</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44183</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44193</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>44195</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44195</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>44201</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>44210</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>44216</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44216</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44221</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44223</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44225</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44231</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44232</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44236</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44237</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44237</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44238</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44238</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44239</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>44239</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>44239</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44239</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44244</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44244</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44249</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44256</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44263</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44285</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44295</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44305</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44308</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44312</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44313</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44316</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44316</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44322</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44330</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>44333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44335</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44337</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44349</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44355</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44357</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44361</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>44361</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31768,7 +31768,7 @@
         <v>44361</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         <v>44361</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44362</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44362</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>44363</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44368</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>44369</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>44369</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44378</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>44378</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>44378</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44383</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44384</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44386</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>44393</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44404</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44412</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>44421</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>44439</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44452</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44453</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44454</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44455</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44460</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>44462</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>44463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>44473</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>44473</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>44475</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>44475</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>44475</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>44475</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>44477</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44480</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33967,7 +33967,7 @@
         <v>44483</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44484</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44484</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44491</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44496</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44496</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44503</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44503</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44509</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>44511</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>44517</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44522</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44523</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34909,7 +34909,7 @@
         <v>44524</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         <v>44526</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44529</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35090,7 +35090,7 @@
         <v>44529</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44535</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44536</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44536</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35380,7 +35380,7 @@
         <v>44539</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
         <v>44545</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>44546</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44546</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>44557</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>44566</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44566</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>44568</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>44571</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35908,7 +35908,7 @@
         <v>44573</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35965,7 +35965,7 @@
         <v>44574</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36027,7 +36027,7 @@
         <v>44574</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>44578</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44578</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>44592</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36260,7 +36260,7 @@
         <v>44594</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36317,7 +36317,7 @@
         <v>44607</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36374,7 +36374,7 @@
         <v>44610</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44610</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36488,7 +36488,7 @@
         <v>44610</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36545,7 +36545,7 @@
         <v>44610</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44610</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44613</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>44627</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>44627</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>44627</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>44649</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44649</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44649</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>44655</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>44658</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44664</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44670</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44676</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44678</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37420,7 +37420,7 @@
         <v>44685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37477,7 +37477,7 @@
         <v>44690</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>44691</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>44694</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>44697</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>44697</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>44700</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44700</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44705</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44706</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44711</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44711</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38139,7 +38139,7 @@
         <v>44712</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38201,7 +38201,7 @@
         <v>44712</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38263,7 +38263,7 @@
         <v>44712</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38320,7 +38320,7 @@
         <v>44728</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38382,7 +38382,7 @@
         <v>44739</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44762</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44767</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38625,7 +38625,7 @@
         <v>44767</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38682,7 +38682,7 @@
         <v>44768</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38744,7 +38744,7 @@
         <v>44768</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>44781</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>44781</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>44789</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38982,7 +38982,7 @@
         <v>44790</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39039,7 +39039,7 @@
         <v>44790</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44792</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44792</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44797</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44798</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44803</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44804</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>44806</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44810</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39758,7 +39758,7 @@
         <v>44810</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39815,7 +39815,7 @@
         <v>44811</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44813</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39929,7 +39929,7 @@
         <v>44817</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44817</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44818</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>44818</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>44820</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>44825</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>44825</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44825</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44825</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40529,7 +40529,7 @@
         <v>44838</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44839</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44846</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>44847</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44847</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40891,7 +40891,7 @@
         <v>44847</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40953,7 +40953,7 @@
         <v>44848</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44862</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44862</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41124,7 +41124,7 @@
         <v>44866</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44867</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44869</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44872</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>44872</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>44874</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41476,7 +41476,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>44883</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>44887</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41729,7 +41729,7 @@
         <v>44887</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41791,7 +41791,7 @@
         <v>44893</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>44894</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44894</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44895</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42091,7 +42091,7 @@
         <v>44897</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42153,7 +42153,7 @@
         <v>44903</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42210,7 +42210,7 @@
         <v>44903</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42272,7 +42272,7 @@
         <v>44908</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42329,7 +42329,7 @@
         <v>44908</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>44908</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>44908</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>44908</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42567,7 +42567,7 @@
         <v>44909</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44910</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>44910</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>44910</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>44910</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>44910</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>44910</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44911</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44911</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44914</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>44914</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>44914</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         <v>44914</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44915</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44916</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44918</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>44923</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44930</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44939</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44939</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44942</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43918,7 +43918,7 @@
         <v>44943</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43975,7 +43975,7 @@
         <v>44946</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>44946</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44952</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44952</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>44953</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44275,7 +44275,7 @@
         <v>44953</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>44958</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>44958</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>44958</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>44959</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44565,7 +44565,7 @@
         <v>44963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44627,7 +44627,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44684,7 +44684,7 @@
         <v>44966</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44741,7 +44741,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44969</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44972</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44972</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44978</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45259,7 +45259,7 @@
         <v>44979</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44980</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44984</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44986</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44986</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44986</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44987</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>44987</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>44992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>44992</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45844,7 +45844,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44993</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44993</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>45000</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46134,7 +46134,7 @@
         <v>45005</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46191,7 +46191,7 @@
         <v>45005</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46248,7 +46248,7 @@
         <v>45005</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46310,7 +46310,7 @@
         <v>45008</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46367,7 +46367,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46424,7 +46424,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>45014</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>45015</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>45015</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>45019</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46771,7 +46771,7 @@
         <v>45019</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46828,7 +46828,7 @@
         <v>45020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46885,7 +46885,7 @@
         <v>45021</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46942,7 +46942,7 @@
         <v>45022</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46999,7 +46999,7 @@
         <v>45022</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47076,7 +47076,7 @@
         <v>45022</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>45027</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47190,7 +47190,7 @@
         <v>45027</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47247,7 +47247,7 @@
         <v>45028</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>45033</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>45033</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>45033</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47475,7 +47475,7 @@
         <v>45034</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47532,7 +47532,7 @@
         <v>45035</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47589,7 +47589,7 @@
         <v>45035</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45040</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47760,7 +47760,7 @@
         <v>45041</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45041</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47874,7 +47874,7 @@
         <v>45042</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47931,7 +47931,7 @@
         <v>45044</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>45044</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>45048</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48107,7 +48107,7 @@
         <v>45048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45048</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45048</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45048</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45048</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>45049</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48449,7 +48449,7 @@
         <v>45050</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45050</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48630,7 +48630,7 @@
         <v>45051</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48687,7 +48687,7 @@
         <v>45054</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>45054</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>45054</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>45055</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>45055</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>45055</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>45055</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>45056</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49148,7 +49148,7 @@
         <v>45057</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49205,7 +49205,7 @@
         <v>45057</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49262,7 +49262,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49319,7 +49319,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49376,7 +49376,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49723,7 +49723,7 @@
         <v>45068</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49780,7 +49780,7 @@
         <v>45070</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45071</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45072</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45075</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>45075</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50080,7 +50080,7 @@
         <v>45075</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50137,7 +50137,7 @@
         <v>45076</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50199,7 +50199,7 @@
         <v>45078</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45078</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50338,7 +50338,7 @@
         <v>45078</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45078</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50462,7 +50462,7 @@
         <v>45079</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45079</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50576,7 +50576,7 @@
         <v>45079</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50633,7 +50633,7 @@
         <v>45079</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50690,7 +50690,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45082</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50980,7 +50980,7 @@
         <v>45096</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51037,7 +51037,7 @@
         <v>45096</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51094,7 +51094,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45097</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51218,7 +51218,7 @@
         <v>45098</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51280,7 +51280,7 @@
         <v>45098</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51337,7 +51337,7 @@
         <v>45098</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>45099</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>45099</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>45099</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45103</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>45106</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51679,7 +51679,7 @@
         <v>45110</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51736,7 +51736,7 @@
         <v>45110</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51793,7 +51793,7 @@
         <v>45110</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51850,7 +51850,7 @@
         <v>45111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51907,7 +51907,7 @@
         <v>45118</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45124</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45142</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52078,7 +52078,7 @@
         <v>45145</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52140,7 +52140,7 @@
         <v>45146</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52197,7 +52197,7 @@
         <v>45146</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45147</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45147</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52383,7 +52383,7 @@
         <v>45147</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45147</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52497,7 +52497,7 @@
         <v>45147</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45147</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45147</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52678,7 +52678,7 @@
         <v>45149</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>45149</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52797,7 +52797,7 @@
         <v>45160</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52854,7 +52854,7 @@
         <v>45160</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52911,7 +52911,7 @@
         <v>45160</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52968,7 +52968,7 @@
         <v>45162</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53025,7 +53025,7 @@
         <v>45162</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53082,7 +53082,7 @@
         <v>45162</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53144,7 +53144,7 @@
         <v>45168</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53201,7 +53201,7 @@
         <v>45175</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53258,7 +53258,7 @@
         <v>45176</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>

--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43942</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44007</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44174</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44526</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44726</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44768</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44792</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44977</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>45012</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43314</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43318</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43328</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43339</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43362</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43369</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43377</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43383</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43392</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43418</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43452</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43497</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43507</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43528</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43538</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43539</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43542</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43545</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43552</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43558</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43580</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43581</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43585</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43588</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43591</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43594</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43595</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43599</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43605</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>43606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>43607</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>43609</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>43612</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>43613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43616</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>43623</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43640</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43641</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>43642</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43643</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>43644</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43651</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43658</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43665</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43672</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43676</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43690</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43713</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>43718</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>43720</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>43721</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>43725</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>43726</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43727</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43731</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>43733</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43734</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43738</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>43740</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>43741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43745</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43748</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43770</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43775</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>43776</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>43780</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>43782</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>43783</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43786</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>43790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>43791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>43795</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43796</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43797</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43803</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43807</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43811</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43812</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>43816</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>43832</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>43832</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43837</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>43837</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>43843</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>43847</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>43860</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>43867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43873</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>43873</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>43875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>43875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>43887</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>43893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>43893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>43894</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>43901</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43906</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43909</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>43910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>43910</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>43910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43921</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43922</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>43923</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>43937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43944</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>43945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>43945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43948</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43950</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43951</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43951</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>43955</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>43958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>43962</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43965</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>43966</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43969</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>43971</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>43971</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>43980</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>43980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>43984</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>43985</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>43986</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>43992</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>43993</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>43993</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>43999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>43999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44005</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44006</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44011</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44014</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44018</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44018</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44019</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44020</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44020</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44020</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>44022</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44025</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44025</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44026</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44026</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44028</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44047</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44055</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44056</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44063</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44064</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44064</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44067</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44067</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44069</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44070</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44070</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44071</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44071</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44071</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>44077</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>44077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>44077</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44081</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44083</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44084</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44084</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44085</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44088</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44090</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44091</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44091</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44092</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44092</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44096</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44097</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44098</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44102</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44102</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44104</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44106</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>44106</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>44109</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44109</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44113</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44113</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44120</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44123</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44123</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44123</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44124</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44131</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44133</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44133</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44137</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>44137</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44137</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44137</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44144</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44144</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44150</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44151</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44153</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44153</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44158</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44158</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44162</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44168</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44168</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44172</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44172</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44174</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44174</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44174</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44176</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44177</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>44177</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>44179</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44179</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44180</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44183</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44193</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>44195</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44195</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>44201</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>44210</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>44216</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44216</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44221</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44223</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44225</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44231</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44232</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44236</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44237</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44237</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44238</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44238</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44239</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>44239</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>44239</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44239</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44244</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44244</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44249</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44256</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44263</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44285</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44295</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44305</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44308</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44312</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44313</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44316</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44316</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44322</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44330</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>44333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44335</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44337</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44349</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44355</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44357</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44361</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>44361</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31768,7 +31768,7 @@
         <v>44361</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         <v>44361</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44362</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44362</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>44363</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44368</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>44369</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>44369</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44378</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>44378</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>44378</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44383</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44384</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44386</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>44393</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44404</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44412</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>44421</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>44439</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44452</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44453</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44454</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44455</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44460</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>44462</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>44463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>44473</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>44473</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>44475</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>44475</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>44475</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>44475</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>44477</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44480</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33967,7 +33967,7 @@
         <v>44483</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44484</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44484</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44491</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44496</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44496</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44503</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44503</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44509</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>44511</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>44517</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44522</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44523</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34909,7 +34909,7 @@
         <v>44524</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         <v>44526</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44529</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35090,7 +35090,7 @@
         <v>44529</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44535</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44536</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44536</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35380,7 +35380,7 @@
         <v>44539</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
         <v>44545</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>44546</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44546</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>44557</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>44566</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44566</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>44568</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>44571</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35908,7 +35908,7 @@
         <v>44573</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35965,7 +35965,7 @@
         <v>44574</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36027,7 +36027,7 @@
         <v>44574</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>44578</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44578</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>44592</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36260,7 +36260,7 @@
         <v>44594</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36317,7 +36317,7 @@
         <v>44607</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36374,7 +36374,7 @@
         <v>44610</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44610</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36488,7 +36488,7 @@
         <v>44610</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36545,7 +36545,7 @@
         <v>44610</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44610</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44613</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>44627</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>44627</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>44627</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>44649</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44649</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44649</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>44655</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>44658</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44664</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44670</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44676</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44678</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37420,7 +37420,7 @@
         <v>44685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37477,7 +37477,7 @@
         <v>44690</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>44691</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>44694</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>44697</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>44697</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>44700</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44700</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44705</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44706</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44711</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44711</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38139,7 +38139,7 @@
         <v>44712</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38201,7 +38201,7 @@
         <v>44712</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38263,7 +38263,7 @@
         <v>44712</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38320,7 +38320,7 @@
         <v>44728</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38382,7 +38382,7 @@
         <v>44739</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44762</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44767</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38625,7 +38625,7 @@
         <v>44767</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38682,7 +38682,7 @@
         <v>44768</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38744,7 +38744,7 @@
         <v>44768</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>44781</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>44781</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>44789</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38982,7 +38982,7 @@
         <v>44790</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39039,7 +39039,7 @@
         <v>44790</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44792</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44792</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44797</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44798</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44803</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44804</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>44806</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44810</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39758,7 +39758,7 @@
         <v>44810</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39815,7 +39815,7 @@
         <v>44811</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44813</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39929,7 +39929,7 @@
         <v>44817</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44817</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44818</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>44818</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>44820</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>44825</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>44825</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44825</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44825</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40529,7 +40529,7 @@
         <v>44838</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44839</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44846</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>44847</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44847</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40891,7 +40891,7 @@
         <v>44847</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40953,7 +40953,7 @@
         <v>44848</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44862</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44862</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41124,7 +41124,7 @@
         <v>44866</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44867</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44869</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44872</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>44872</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>44874</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41476,7 +41476,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>44883</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>44887</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41729,7 +41729,7 @@
         <v>44887</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41791,7 +41791,7 @@
         <v>44893</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>44894</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44894</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44895</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42091,7 +42091,7 @@
         <v>44897</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42153,7 +42153,7 @@
         <v>44903</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42210,7 +42210,7 @@
         <v>44903</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42272,7 +42272,7 @@
         <v>44908</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42329,7 +42329,7 @@
         <v>44908</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>44908</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>44908</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>44908</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42567,7 +42567,7 @@
         <v>44909</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44910</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>44910</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>44910</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>44910</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>44910</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>44910</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44911</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44911</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44914</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>44914</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>44914</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         <v>44914</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44915</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44916</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44918</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>44923</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44930</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44939</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44939</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44942</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43918,7 +43918,7 @@
         <v>44943</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43975,7 +43975,7 @@
         <v>44946</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>44946</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44952</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44952</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>44953</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44275,7 +44275,7 @@
         <v>44953</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>44958</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>44958</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>44958</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>44959</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44565,7 +44565,7 @@
         <v>44963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44627,7 +44627,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44684,7 +44684,7 @@
         <v>44966</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44741,7 +44741,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44969</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44972</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44972</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44978</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45259,7 +45259,7 @@
         <v>44979</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44980</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44984</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44986</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44986</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44986</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44987</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>44987</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>44992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>44992</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45844,7 +45844,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44993</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44993</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>45000</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46134,7 +46134,7 @@
         <v>45005</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46191,7 +46191,7 @@
         <v>45005</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46248,7 +46248,7 @@
         <v>45005</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46310,7 +46310,7 @@
         <v>45008</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46367,7 +46367,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46424,7 +46424,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>45014</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>45015</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>45015</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>45019</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46771,7 +46771,7 @@
         <v>45019</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46828,7 +46828,7 @@
         <v>45020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46885,7 +46885,7 @@
         <v>45021</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46942,7 +46942,7 @@
         <v>45022</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46999,7 +46999,7 @@
         <v>45022</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47076,7 +47076,7 @@
         <v>45022</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>45027</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47190,7 +47190,7 @@
         <v>45027</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47247,7 +47247,7 @@
         <v>45028</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>45033</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>45033</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>45033</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47475,7 +47475,7 @@
         <v>45034</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47532,7 +47532,7 @@
         <v>45035</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47589,7 +47589,7 @@
         <v>45035</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45040</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47760,7 +47760,7 @@
         <v>45041</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45041</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47874,7 +47874,7 @@
         <v>45042</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47931,7 +47931,7 @@
         <v>45044</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>45044</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>45048</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48107,7 +48107,7 @@
         <v>45048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45048</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45048</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45048</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45048</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>45049</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48449,7 +48449,7 @@
         <v>45050</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45050</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48630,7 +48630,7 @@
         <v>45051</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48687,7 +48687,7 @@
         <v>45054</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>45054</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>45054</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>45055</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>45055</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>45055</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>45055</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>45056</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49148,7 +49148,7 @@
         <v>45057</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49205,7 +49205,7 @@
         <v>45057</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49262,7 +49262,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49319,7 +49319,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49376,7 +49376,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49723,7 +49723,7 @@
         <v>45068</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49780,7 +49780,7 @@
         <v>45070</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45071</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45072</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45075</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>45075</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50080,7 +50080,7 @@
         <v>45075</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50137,7 +50137,7 @@
         <v>45076</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50199,7 +50199,7 @@
         <v>45078</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45078</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50338,7 +50338,7 @@
         <v>45078</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45078</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50462,7 +50462,7 @@
         <v>45079</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45079</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50576,7 +50576,7 @@
         <v>45079</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50633,7 +50633,7 @@
         <v>45079</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50690,7 +50690,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45082</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50980,7 +50980,7 @@
         <v>45096</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51037,7 +51037,7 @@
         <v>45096</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51094,7 +51094,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45097</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51218,7 +51218,7 @@
         <v>45098</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51280,7 +51280,7 @@
         <v>45098</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51337,7 +51337,7 @@
         <v>45098</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>45099</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>45099</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>45099</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45103</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>45106</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51679,7 +51679,7 @@
         <v>45110</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51736,7 +51736,7 @@
         <v>45110</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51793,7 +51793,7 @@
         <v>45110</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51850,7 +51850,7 @@
         <v>45111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51907,7 +51907,7 @@
         <v>45118</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45124</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45142</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52078,7 +52078,7 @@
         <v>45145</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52140,7 +52140,7 @@
         <v>45146</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52197,7 +52197,7 @@
         <v>45146</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45147</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45147</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52383,7 +52383,7 @@
         <v>45147</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45147</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52497,7 +52497,7 @@
         <v>45147</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45147</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45147</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52678,7 +52678,7 @@
         <v>45149</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>45149</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52797,7 +52797,7 @@
         <v>45160</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52854,7 +52854,7 @@
         <v>45160</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52911,7 +52911,7 @@
         <v>45160</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52968,7 +52968,7 @@
         <v>45162</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53025,7 +53025,7 @@
         <v>45162</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53082,7 +53082,7 @@
         <v>45162</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53144,7 +53144,7 @@
         <v>45168</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53201,7 +53201,7 @@
         <v>45175</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53258,7 +53258,7 @@
         <v>45176</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>

--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y868"/>
+  <dimension ref="A1:Y870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43942</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44007</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44174</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44526</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44726</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44768</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44792</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44977</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>45012</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43314</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43318</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43328</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43339</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43362</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43369</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43377</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43383</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43392</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43418</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43452</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43497</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43507</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43528</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43538</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43539</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43542</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43545</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43552</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43558</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43580</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43581</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43585</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43588</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43591</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43594</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43595</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43599</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43605</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>43606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>43607</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>43609</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>43612</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>43613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43616</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>43623</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43640</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43641</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>43642</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43643</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>43644</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43651</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43658</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43665</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43672</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43676</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43690</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43713</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>43718</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>43720</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>43721</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>43725</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>43726</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43727</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43731</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>43733</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43734</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43738</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>43740</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>43741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43745</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43748</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43770</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43775</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>43776</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>43780</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>43782</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>43783</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43786</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>43790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>43791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>43795</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43796</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43797</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43803</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43807</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43811</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43812</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>43816</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>43832</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>43832</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43837</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>43837</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>43843</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>43847</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>43860</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>43867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43873</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>43873</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>43875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>43875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>43887</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>43893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>43893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>43894</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>43901</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43906</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43909</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>43910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>43910</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>43910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43921</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43922</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>43923</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>43937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43944</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>43945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>43945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43948</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43950</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43951</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43951</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>43955</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>43958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>43962</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43965</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>43966</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43969</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>43971</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>43971</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>43980</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>43980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>43984</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>43985</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>43986</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>43992</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>43993</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>43993</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>43999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>43999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44005</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44006</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44011</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44014</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44018</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44018</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44019</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44020</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44020</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44020</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>44022</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44025</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44025</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44026</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44026</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44028</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44047</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44055</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44056</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44063</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44064</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44064</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44067</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44067</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44069</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44070</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44070</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44071</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44071</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44071</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>44077</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>44077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>44077</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44081</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44083</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44084</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44084</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44085</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44088</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44090</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44091</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44091</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44092</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44092</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44096</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44097</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44098</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44102</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44102</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44104</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44106</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>44106</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>44109</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44109</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44113</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44113</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44120</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44123</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44123</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44123</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44124</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44131</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44133</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44133</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44137</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>44137</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44137</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44137</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44144</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44144</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44150</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44151</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44153</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44153</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44158</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44158</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44162</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44168</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44168</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44172</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44172</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44174</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44174</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44174</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44176</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44177</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>44177</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>44179</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44179</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44180</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44183</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44193</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>44195</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44195</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>44201</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>44210</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>44216</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44216</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44221</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44223</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44225</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44231</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44232</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44236</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44237</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44237</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44238</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44238</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44239</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>44239</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>44239</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44239</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44244</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44244</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44249</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44256</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44263</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44285</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44295</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44305</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44308</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44312</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44313</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44316</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44316</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44322</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44330</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>44333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44335</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44337</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44349</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44355</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44357</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44361</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>44361</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31768,7 +31768,7 @@
         <v>44361</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         <v>44361</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44362</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44362</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>44363</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44368</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>44369</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>44369</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44378</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>44378</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>44378</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44383</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44384</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44386</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>44393</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44404</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44412</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>44421</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>44439</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44452</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44453</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44454</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44455</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44460</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>44462</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>44463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>44473</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>44473</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>44475</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>44475</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>44475</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>44475</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>44477</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44480</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33967,7 +33967,7 @@
         <v>44483</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44484</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44484</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44491</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44496</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44496</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44503</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44503</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44509</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>44511</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>44517</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44522</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44523</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34909,7 +34909,7 @@
         <v>44524</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         <v>44526</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44529</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35090,7 +35090,7 @@
         <v>44529</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44535</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44536</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44536</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35380,7 +35380,7 @@
         <v>44539</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
         <v>44545</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>44546</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44546</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>44557</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>44566</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44566</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>44568</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>44571</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35908,7 +35908,7 @@
         <v>44573</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35965,7 +35965,7 @@
         <v>44574</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36027,7 +36027,7 @@
         <v>44574</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>44578</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44578</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>44592</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36260,7 +36260,7 @@
         <v>44594</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36317,7 +36317,7 @@
         <v>44607</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36374,7 +36374,7 @@
         <v>44610</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44610</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36488,7 +36488,7 @@
         <v>44610</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36545,7 +36545,7 @@
         <v>44610</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44610</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44613</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>44627</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>44627</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>44627</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>44649</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44649</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44649</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>44655</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>44658</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44664</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44670</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44676</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44678</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37420,7 +37420,7 @@
         <v>44685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37477,7 +37477,7 @@
         <v>44690</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>44691</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>44694</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>44697</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>44697</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>44700</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44700</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44705</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44706</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44711</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44711</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38139,7 +38139,7 @@
         <v>44712</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38201,7 +38201,7 @@
         <v>44712</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38263,7 +38263,7 @@
         <v>44712</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38320,7 +38320,7 @@
         <v>44728</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38382,7 +38382,7 @@
         <v>44739</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44762</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44767</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38625,7 +38625,7 @@
         <v>44767</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38682,7 +38682,7 @@
         <v>44768</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38744,7 +38744,7 @@
         <v>44768</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>44781</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>44781</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>44789</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38982,7 +38982,7 @@
         <v>44790</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39039,7 +39039,7 @@
         <v>44790</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44792</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44792</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44797</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44798</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44803</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44804</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>44806</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44810</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39758,7 +39758,7 @@
         <v>44810</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39815,7 +39815,7 @@
         <v>44811</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44813</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39929,7 +39929,7 @@
         <v>44817</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44817</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44818</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>44818</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>44820</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>44825</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>44825</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44825</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44825</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40529,7 +40529,7 @@
         <v>44838</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44839</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44846</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>44847</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44847</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40891,7 +40891,7 @@
         <v>44847</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40953,7 +40953,7 @@
         <v>44848</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44862</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44862</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41124,7 +41124,7 @@
         <v>44866</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44867</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44869</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44872</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>44872</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>44874</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41476,7 +41476,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>44883</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>44887</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41729,7 +41729,7 @@
         <v>44887</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41791,7 +41791,7 @@
         <v>44893</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>44894</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44894</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44895</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42091,7 +42091,7 @@
         <v>44897</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42153,7 +42153,7 @@
         <v>44903</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42210,7 +42210,7 @@
         <v>44903</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42272,7 +42272,7 @@
         <v>44908</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42329,7 +42329,7 @@
         <v>44908</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>44908</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>44908</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>44908</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42567,7 +42567,7 @@
         <v>44909</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44910</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>44910</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>44910</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>44910</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>44910</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>44910</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44911</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44911</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44914</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>44914</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>44914</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         <v>44914</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44915</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44916</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44918</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>44923</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44930</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44939</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44939</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44942</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43918,7 +43918,7 @@
         <v>44943</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43975,7 +43975,7 @@
         <v>44946</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>44946</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44952</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44952</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>44953</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44275,7 +44275,7 @@
         <v>44953</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>44958</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>44958</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>44958</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>44959</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44565,7 +44565,7 @@
         <v>44963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44627,7 +44627,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44684,7 +44684,7 @@
         <v>44966</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44741,7 +44741,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44969</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44972</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44972</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44978</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45259,7 +45259,7 @@
         <v>44979</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44980</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44984</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44986</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44986</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44986</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44987</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>44987</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>44992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>44992</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45844,7 +45844,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44993</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44993</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>45000</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46134,7 +46134,7 @@
         <v>45005</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46191,7 +46191,7 @@
         <v>45005</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46248,7 +46248,7 @@
         <v>45005</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46310,7 +46310,7 @@
         <v>45008</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46367,7 +46367,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46424,7 +46424,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>45014</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>45015</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>45015</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>45019</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46771,7 +46771,7 @@
         <v>45019</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46828,7 +46828,7 @@
         <v>45020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46885,7 +46885,7 @@
         <v>45021</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46942,7 +46942,7 @@
         <v>45022</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46999,7 +46999,7 @@
         <v>45022</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47076,7 +47076,7 @@
         <v>45022</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>45027</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47190,7 +47190,7 @@
         <v>45027</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47247,7 +47247,7 @@
         <v>45028</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>45033</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>45033</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>45033</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47475,7 +47475,7 @@
         <v>45034</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47532,7 +47532,7 @@
         <v>45035</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47589,7 +47589,7 @@
         <v>45035</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45040</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47760,7 +47760,7 @@
         <v>45041</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45041</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47874,7 +47874,7 @@
         <v>45042</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47931,7 +47931,7 @@
         <v>45044</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>45044</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>45048</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48107,7 +48107,7 @@
         <v>45048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45048</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45048</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45048</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45048</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>45049</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48449,7 +48449,7 @@
         <v>45050</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45050</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48630,7 +48630,7 @@
         <v>45051</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48687,7 +48687,7 @@
         <v>45054</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>45054</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>45054</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>45055</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>45055</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>45055</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>45055</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>45056</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49148,7 +49148,7 @@
         <v>45057</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49205,7 +49205,7 @@
         <v>45057</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49262,7 +49262,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49319,7 +49319,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49376,7 +49376,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49723,7 +49723,7 @@
         <v>45068</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49780,7 +49780,7 @@
         <v>45070</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45071</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45072</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45075</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>45075</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50080,7 +50080,7 @@
         <v>45075</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50137,7 +50137,7 @@
         <v>45076</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50199,7 +50199,7 @@
         <v>45078</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45078</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50338,7 +50338,7 @@
         <v>45078</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45078</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50462,7 +50462,7 @@
         <v>45079</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45079</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50576,7 +50576,7 @@
         <v>45079</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50633,7 +50633,7 @@
         <v>45079</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50690,7 +50690,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45082</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50980,7 +50980,7 @@
         <v>45096</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51037,7 +51037,7 @@
         <v>45096</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51094,7 +51094,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45097</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51218,7 +51218,7 @@
         <v>45098</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51280,7 +51280,7 @@
         <v>45098</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51337,7 +51337,7 @@
         <v>45098</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>45099</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>45099</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>45099</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45103</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>45106</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51679,7 +51679,7 @@
         <v>45110</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51736,7 +51736,7 @@
         <v>45110</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51793,7 +51793,7 @@
         <v>45110</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51850,7 +51850,7 @@
         <v>45111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51907,7 +51907,7 @@
         <v>45118</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45124</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45142</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52078,7 +52078,7 @@
         <v>45145</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52140,7 +52140,7 @@
         <v>45146</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52197,7 +52197,7 @@
         <v>45146</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45147</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45147</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52383,7 +52383,7 @@
         <v>45147</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45147</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52497,7 +52497,7 @@
         <v>45147</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45147</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45147</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52678,7 +52678,7 @@
         <v>45149</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>45149</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52797,7 +52797,7 @@
         <v>45160</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52854,7 +52854,7 @@
         <v>45160</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52911,7 +52911,7 @@
         <v>45160</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52968,7 +52968,7 @@
         <v>45162</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53025,7 +53025,7 @@
         <v>45162</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53082,7 +53082,7 @@
         <v>45162</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53144,7 +53144,7 @@
         <v>45168</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53201,7 +53201,7 @@
         <v>45175</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53248,7 +53248,7 @@
       </c>
       <c r="R867" s="2" t="inlineStr"/>
     </row>
-    <row r="868">
+    <row r="868" ht="15" customHeight="1">
       <c r="A868" t="inlineStr">
         <is>
           <t>A 41735-2023</t>
@@ -53258,7 +53258,7 @@
         <v>45176</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53309,6 +53309,120 @@
         <v>0</v>
       </c>
       <c r="R868" s="2" t="inlineStr"/>
+    </row>
+    <row r="869" ht="15" customHeight="1">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>A 42239-2023</t>
+        </is>
+      </c>
+      <c r="B869" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C869" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>HUDIKSVALL</t>
+        </is>
+      </c>
+      <c r="G869" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H869" t="n">
+        <v>0</v>
+      </c>
+      <c r="I869" t="n">
+        <v>0</v>
+      </c>
+      <c r="J869" t="n">
+        <v>0</v>
+      </c>
+      <c r="K869" t="n">
+        <v>0</v>
+      </c>
+      <c r="L869" t="n">
+        <v>0</v>
+      </c>
+      <c r="M869" t="n">
+        <v>0</v>
+      </c>
+      <c r="N869" t="n">
+        <v>0</v>
+      </c>
+      <c r="O869" t="n">
+        <v>0</v>
+      </c>
+      <c r="P869" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q869" t="n">
+        <v>0</v>
+      </c>
+      <c r="R869" s="2" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>A 42244-2023</t>
+        </is>
+      </c>
+      <c r="B870" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C870" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>HUDIKSVALL</t>
+        </is>
+      </c>
+      <c r="G870" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H870" t="n">
+        <v>0</v>
+      </c>
+      <c r="I870" t="n">
+        <v>0</v>
+      </c>
+      <c r="J870" t="n">
+        <v>0</v>
+      </c>
+      <c r="K870" t="n">
+        <v>0</v>
+      </c>
+      <c r="L870" t="n">
+        <v>0</v>
+      </c>
+      <c r="M870" t="n">
+        <v>0</v>
+      </c>
+      <c r="N870" t="n">
+        <v>0</v>
+      </c>
+      <c r="O870" t="n">
+        <v>0</v>
+      </c>
+      <c r="P870" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>0</v>
+      </c>
+      <c r="R870" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43942</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44007</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44174</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44526</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44726</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44768</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44792</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44977</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>45012</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43314</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43318</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43328</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43339</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43362</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43369</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43377</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43383</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43392</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43418</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43452</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43497</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43507</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43528</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43538</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43539</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43542</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43545</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43552</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43558</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43580</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43581</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43585</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43588</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43591</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43594</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43595</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43599</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43605</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>43606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>43607</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>43609</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>43612</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>43613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43616</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>43623</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43640</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43641</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>43642</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43643</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>43644</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43651</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43658</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43665</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43672</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43676</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43690</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43713</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>43718</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>43720</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>43721</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>43725</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>43726</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43727</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43731</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>43733</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43734</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43738</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>43740</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>43741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43745</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43748</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43770</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43775</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>43776</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>43780</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>43782</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>43783</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43786</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>43790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>43791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>43795</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43796</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43797</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43803</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43807</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43811</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43812</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>43816</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>43832</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>43832</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43837</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>43837</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>43843</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>43847</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>43860</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>43867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43873</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>43873</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>43875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>43875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>43887</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>43893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>43893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>43894</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>43901</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43906</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43909</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>43910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>43910</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>43910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43921</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43922</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>43923</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>43937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43944</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>43945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>43945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43948</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43950</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43951</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43951</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>43955</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>43958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>43962</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43965</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>43966</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43969</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>43971</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>43971</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>43980</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>43980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>43984</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>43985</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>43986</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>43992</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>43993</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>43993</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>43999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>43999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44005</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44006</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44011</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44014</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44018</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44018</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44019</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44020</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44020</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44020</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>44022</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44025</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44025</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44026</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44026</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44028</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44047</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44055</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44056</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44063</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44064</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44064</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44067</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44067</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44069</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44070</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44070</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44071</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44071</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44071</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>44077</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>44077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>44077</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44081</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44083</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44084</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44084</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44085</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44088</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44090</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44091</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44091</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44092</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44092</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44096</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44097</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44098</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44102</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44102</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44104</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44106</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>44106</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>44109</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44109</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44113</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44113</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44120</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44123</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44123</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44123</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44124</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44131</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44133</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44133</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44137</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>44137</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44137</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44137</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44144</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44144</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44150</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44151</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44153</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44153</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44158</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44158</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44162</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44168</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44168</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44172</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44172</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44174</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44174</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44174</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44176</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44177</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>44177</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>44179</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44179</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44180</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44183</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44193</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>44195</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44195</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>44201</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>44210</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>44216</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44216</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44221</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44223</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44225</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44231</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44232</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44236</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44237</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44237</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44238</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44238</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44239</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>44239</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>44239</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44239</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44244</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44244</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44249</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44256</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44263</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44285</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44295</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44305</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44308</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44312</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44313</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44316</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44316</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44322</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44330</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>44333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44335</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44337</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44349</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44355</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44357</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44361</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>44361</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31768,7 +31768,7 @@
         <v>44361</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         <v>44361</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44362</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44362</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>44363</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44368</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>44369</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>44369</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44378</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>44378</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>44378</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44383</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44384</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44386</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>44393</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44404</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44412</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>44421</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>44439</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44452</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44453</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44454</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44455</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44460</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>44462</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>44463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>44473</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>44473</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>44475</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>44475</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>44475</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>44475</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>44477</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44480</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33967,7 +33967,7 @@
         <v>44483</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44484</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44484</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44491</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44496</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44496</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44503</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44503</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44509</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>44511</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>44517</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44522</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44523</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34909,7 +34909,7 @@
         <v>44524</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         <v>44526</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44529</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35090,7 +35090,7 @@
         <v>44529</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44535</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44536</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44536</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35380,7 +35380,7 @@
         <v>44539</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
         <v>44545</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>44546</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44546</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>44557</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>44566</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44566</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>44568</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>44571</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35908,7 +35908,7 @@
         <v>44573</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35965,7 +35965,7 @@
         <v>44574</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36027,7 +36027,7 @@
         <v>44574</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>44578</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44578</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>44592</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36260,7 +36260,7 @@
         <v>44594</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36317,7 +36317,7 @@
         <v>44607</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36374,7 +36374,7 @@
         <v>44610</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44610</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36488,7 +36488,7 @@
         <v>44610</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36545,7 +36545,7 @@
         <v>44610</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44610</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44613</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>44627</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>44627</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>44627</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>44649</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44649</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44649</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>44655</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>44658</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44664</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44670</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44676</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44678</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37420,7 +37420,7 @@
         <v>44685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37477,7 +37477,7 @@
         <v>44690</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>44691</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>44694</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>44697</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>44697</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>44700</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44700</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44705</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44706</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44711</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44711</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38139,7 +38139,7 @@
         <v>44712</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38201,7 +38201,7 @@
         <v>44712</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38263,7 +38263,7 @@
         <v>44712</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38320,7 +38320,7 @@
         <v>44728</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38382,7 +38382,7 @@
         <v>44739</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44762</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44767</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38625,7 +38625,7 @@
         <v>44767</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38682,7 +38682,7 @@
         <v>44768</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38744,7 +38744,7 @@
         <v>44768</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>44781</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>44781</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>44789</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38982,7 +38982,7 @@
         <v>44790</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39039,7 +39039,7 @@
         <v>44790</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44792</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44792</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44797</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44798</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44803</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44804</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>44806</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44810</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39758,7 +39758,7 @@
         <v>44810</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39815,7 +39815,7 @@
         <v>44811</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44813</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39929,7 +39929,7 @@
         <v>44817</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44817</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44818</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>44818</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>44820</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>44825</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>44825</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44825</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44825</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40529,7 +40529,7 @@
         <v>44838</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44839</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44846</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>44847</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44847</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40891,7 +40891,7 @@
         <v>44847</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40953,7 +40953,7 @@
         <v>44848</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44862</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44862</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41124,7 +41124,7 @@
         <v>44866</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44867</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44869</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44872</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>44872</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>44874</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41476,7 +41476,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>44883</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>44887</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41729,7 +41729,7 @@
         <v>44887</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41791,7 +41791,7 @@
         <v>44893</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>44894</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44894</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44895</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42091,7 +42091,7 @@
         <v>44897</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42153,7 +42153,7 @@
         <v>44903</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42210,7 +42210,7 @@
         <v>44903</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42272,7 +42272,7 @@
         <v>44908</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42329,7 +42329,7 @@
         <v>44908</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>44908</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>44908</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>44908</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42567,7 +42567,7 @@
         <v>44909</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44910</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>44910</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>44910</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>44910</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>44910</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>44910</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44911</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44911</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44914</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>44914</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>44914</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         <v>44914</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44915</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44916</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44918</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>44923</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44930</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44939</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44939</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44942</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43918,7 +43918,7 @@
         <v>44943</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43975,7 +43975,7 @@
         <v>44946</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>44946</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44952</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44952</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>44953</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44275,7 +44275,7 @@
         <v>44953</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>44958</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>44958</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>44958</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>44959</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44565,7 +44565,7 @@
         <v>44963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44627,7 +44627,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44684,7 +44684,7 @@
         <v>44966</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44741,7 +44741,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44969</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44972</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44972</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44978</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45259,7 +45259,7 @@
         <v>44979</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44980</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44984</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44986</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44986</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44986</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44987</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>44987</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>44992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>44992</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45844,7 +45844,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44993</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44993</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>45000</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46134,7 +46134,7 @@
         <v>45005</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46191,7 +46191,7 @@
         <v>45005</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46248,7 +46248,7 @@
         <v>45005</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46310,7 +46310,7 @@
         <v>45008</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46367,7 +46367,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46424,7 +46424,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>45014</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>45015</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>45015</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>45019</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46771,7 +46771,7 @@
         <v>45019</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46828,7 +46828,7 @@
         <v>45020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46885,7 +46885,7 @@
         <v>45021</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46942,7 +46942,7 @@
         <v>45022</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46999,7 +46999,7 @@
         <v>45022</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47076,7 +47076,7 @@
         <v>45022</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>45027</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47190,7 +47190,7 @@
         <v>45027</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47247,7 +47247,7 @@
         <v>45028</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>45033</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>45033</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>45033</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47475,7 +47475,7 @@
         <v>45034</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47532,7 +47532,7 @@
         <v>45035</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47589,7 +47589,7 @@
         <v>45035</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45040</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47760,7 +47760,7 @@
         <v>45041</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45041</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47874,7 +47874,7 @@
         <v>45042</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47931,7 +47931,7 @@
         <v>45044</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>45044</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>45048</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48107,7 +48107,7 @@
         <v>45048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45048</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45048</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45048</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45048</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>45049</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48449,7 +48449,7 @@
         <v>45050</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45050</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48630,7 +48630,7 @@
         <v>45051</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48687,7 +48687,7 @@
         <v>45054</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>45054</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>45054</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>45055</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>45055</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>45055</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>45055</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>45056</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49148,7 +49148,7 @@
         <v>45057</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49205,7 +49205,7 @@
         <v>45057</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49262,7 +49262,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49319,7 +49319,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49376,7 +49376,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49723,7 +49723,7 @@
         <v>45068</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49780,7 +49780,7 @@
         <v>45070</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45071</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45072</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45075</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>45075</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50080,7 +50080,7 @@
         <v>45075</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50137,7 +50137,7 @@
         <v>45076</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50199,7 +50199,7 @@
         <v>45078</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45078</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50338,7 +50338,7 @@
         <v>45078</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45078</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50462,7 +50462,7 @@
         <v>45079</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45079</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50576,7 +50576,7 @@
         <v>45079</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50633,7 +50633,7 @@
         <v>45079</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50690,7 +50690,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45082</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50980,7 +50980,7 @@
         <v>45096</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51037,7 +51037,7 @@
         <v>45096</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51094,7 +51094,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45097</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51218,7 +51218,7 @@
         <v>45098</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51280,7 +51280,7 @@
         <v>45098</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51337,7 +51337,7 @@
         <v>45098</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>45099</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>45099</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>45099</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45103</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>45106</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51679,7 +51679,7 @@
         <v>45110</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51736,7 +51736,7 @@
         <v>45110</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51793,7 +51793,7 @@
         <v>45110</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51850,7 +51850,7 @@
         <v>45111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51907,7 +51907,7 @@
         <v>45118</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45124</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45142</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52078,7 +52078,7 @@
         <v>45145</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52140,7 +52140,7 @@
         <v>45146</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52197,7 +52197,7 @@
         <v>45146</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45147</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45147</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52383,7 +52383,7 @@
         <v>45147</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45147</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52497,7 +52497,7 @@
         <v>45147</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45147</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45147</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52678,7 +52678,7 @@
         <v>45149</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>45149</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52797,7 +52797,7 @@
         <v>45160</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52854,7 +52854,7 @@
         <v>45160</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52911,7 +52911,7 @@
         <v>45160</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52968,7 +52968,7 @@
         <v>45162</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53025,7 +53025,7 @@
         <v>45162</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53082,7 +53082,7 @@
         <v>45162</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53144,7 +53144,7 @@
         <v>45168</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53201,7 +53201,7 @@
         <v>45175</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53258,7 +53258,7 @@
         <v>45176</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53320,7 +53320,7 @@
         <v>45180</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53377,7 +53377,7 @@
         <v>45180</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>

--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -648,31 +648,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 44984-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 44984-2018.xlsx", "A 44984-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 44984-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 44984-2018.png", "A 44984-2018")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 44984-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 44984-2018.png", "A 44984-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 44984-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 44984-2018.docx", "A 44984-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 44984-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 44984-2018.docx", "A 44984-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 44984-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 44984-2018.docx", "A 44984-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 44984-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 44984-2018.docx", "A 44984-2018")</f>
         <v/>
       </c>
     </row>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,27 +753,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 13021-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 13021-2022.xlsx", "A 13021-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 13021-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 13021-2022.png", "A 13021-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 13021-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 13021-2022.docx", "A 13021-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 13021-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 13021-2022.docx", "A 13021-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 13021-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 13021-2022.docx", "A 13021-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 13021-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 13021-2022.docx", "A 13021-2022")</f>
         <v/>
       </c>
     </row>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,31 +856,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 55441-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 55441-2020.xlsx", "A 55441-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 55441-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 55441-2020.png", "A 55441-2020")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 55441-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 55441-2020.png", "A 55441-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 55441-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 55441-2020.docx", "A 55441-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 55441-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 55441-2020.docx", "A 55441-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 55441-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 55441-2020.docx", "A 55441-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 55441-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 55441-2020.docx", "A 55441-2020")</f>
         <v/>
       </c>
     </row>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,31 +961,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 57608-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 57608-2022.xlsx", "A 57608-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 57608-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 57608-2022.png", "A 57608-2022")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 57608-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 57608-2022.png", "A 57608-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 57608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 57608-2022.docx", "A 57608-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 57608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 57608-2022.docx", "A 57608-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 57608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 57608-2022.docx", "A 57608-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 57608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 57608-2022.docx", "A 57608-2022")</f>
         <v/>
       </c>
     </row>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,27 +1059,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 60212-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 60212-2022.xlsx", "A 60212-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 60212-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 60212-2022.png", "A 60212-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 60212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 60212-2022.docx", "A 60212-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 60212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 60212-2022.docx", "A 60212-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 60212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 60212-2022.docx", "A 60212-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 60212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 60212-2022.docx", "A 60212-2022")</f>
         <v/>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1157,27 +1157,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 35250-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 35250-2019.xlsx", "A 35250-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 35250-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 35250-2019.png", "A 35250-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 35250-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 35250-2019.docx", "A 35250-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 35250-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 35250-2019.docx", "A 35250-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 35250-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 35250-2019.docx", "A 35250-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 35250-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 35250-2019.docx", "A 35250-2019")</f>
         <v/>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,27 +1255,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 96-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 96-2021.xlsx", "A 96-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 96-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 96-2021.png", "A 96-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 96-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 96-2021.docx", "A 96-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 96-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 96-2021.docx", "A 96-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 96-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 96-2021.docx", "A 96-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 96-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 96-2021.docx", "A 96-2021")</f>
         <v/>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,27 +1347,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 54447-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 54447-2019.xlsx", "A 54447-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 54447-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 54447-2019.png", "A 54447-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 54447-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 54447-2019.docx", "A 54447-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 54447-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 54447-2019.docx", "A 54447-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 54447-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 54447-2019.docx", "A 54447-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 54447-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 54447-2019.docx", "A 54447-2019")</f>
         <v/>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,27 +1444,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 414-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 414-2023.xlsx", "A 414-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 414-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 414-2023.png", "A 414-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 414-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 414-2023.docx", "A 414-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 414-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 414-2023.docx", "A 414-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 414-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 414-2023.docx", "A 414-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 414-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 414-2023.docx", "A 414-2023")</f>
         <v/>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,27 +1535,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 19211-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 19211-2020.xlsx", "A 19211-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 19211-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 19211-2020.png", "A 19211-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 19211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 19211-2020.docx", "A 19211-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 19211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 19211-2020.docx", "A 19211-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 19211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 19211-2020.docx", "A 19211-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 19211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 19211-2020.docx", "A 19211-2020")</f>
         <v/>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,27 +1631,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 29705-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 29705-2021.xlsx", "A 29705-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 29705-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 29705-2021.png", "A 29705-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 29705-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 29705-2021.docx", "A 29705-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 29705-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 29705-2021.docx", "A 29705-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 29705-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 29705-2021.docx", "A 29705-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 29705-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 29705-2021.docx", "A 29705-2021")</f>
         <v/>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,27 +1722,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 49148-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 49148-2021.xlsx", "A 49148-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 49148-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 49148-2021.png", "A 49148-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 49148-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 49148-2021.docx", "A 49148-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 49148-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 49148-2021.docx", "A 49148-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 49148-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 49148-2021.docx", "A 49148-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 49148-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 49148-2021.docx", "A 49148-2021")</f>
         <v/>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,27 +1813,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 8671-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 8671-2022.xlsx", "A 8671-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 8671-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 8671-2022.png", "A 8671-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 8671-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 8671-2022.docx", "A 8671-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 8671-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 8671-2022.docx", "A 8671-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 8671-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 8671-2022.docx", "A 8671-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 8671-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 8671-2022.docx", "A 8671-2022")</f>
         <v/>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1903,27 +1903,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 42790-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 42790-2018.xlsx", "A 42790-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 42790-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 42790-2018.png", "A 42790-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 42790-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 42790-2018.docx", "A 42790-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 42790-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 42790-2018.docx", "A 42790-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 42790-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 42790-2018.docx", "A 42790-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 42790-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 42790-2018.docx", "A 42790-2018")</f>
         <v/>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1993,27 +1993,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 43003-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 43003-2018.xlsx", "A 43003-2018")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 43003-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 43003-2018.png", "A 43003-2018")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 43003-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 43003-2018.docx", "A 43003-2018")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 43003-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 43003-2018.docx", "A 43003-2018")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 43003-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 43003-2018.docx", "A 43003-2018")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 43003-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 43003-2018.docx", "A 43003-2018")</f>
         <v/>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,27 +2083,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 157-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 157-2020.xlsx", "A 157-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 157-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 157-2020.png", "A 157-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 157-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 157-2020.docx", "A 157-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 157-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 157-2020.docx", "A 157-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 157-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 157-2020.docx", "A 157-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 157-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 157-2020.docx", "A 157-2020")</f>
         <v/>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2178,31 +2178,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 49714-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 49714-2020.xlsx", "A 49714-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 49714-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 49714-2020.png", "A 49714-2020")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 49714-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 49714-2020.png", "A 49714-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 49714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 49714-2020.docx", "A 49714-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 49714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 49714-2020.docx", "A 49714-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 49714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 49714-2020.docx", "A 49714-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 49714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 49714-2020.docx", "A 49714-2020")</f>
         <v/>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2272,27 +2272,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 55869-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 55869-2020.xlsx", "A 55869-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 55869-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 55869-2020.png", "A 55869-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 55869-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 55869-2020.docx", "A 55869-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 55869-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 55869-2020.docx", "A 55869-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 55869-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 55869-2020.docx", "A 55869-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 55869-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 55869-2020.docx", "A 55869-2020")</f>
         <v/>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,31 +2362,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 39526-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 39526-2021.xlsx", "A 39526-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 39526-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 39526-2021.png", "A 39526-2021")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 39526-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 39526-2021.png", "A 39526-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 39526-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 39526-2021.docx", "A 39526-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 39526-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 39526-2021.docx", "A 39526-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 39526-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 39526-2021.docx", "A 39526-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 39526-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 39526-2021.docx", "A 39526-2021")</f>
         <v/>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,27 +2456,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 8966-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 8966-2022.xlsx", "A 8966-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 8966-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 8966-2022.png", "A 8966-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 8966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 8966-2022.docx", "A 8966-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 8966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 8966-2022.docx", "A 8966-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 8966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 8966-2022.docx", "A 8966-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 8966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 8966-2022.docx", "A 8966-2022")</f>
         <v/>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2551,27 +2551,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 35985-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 35985-2022.xlsx", "A 35985-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 35985-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 35985-2022.png", "A 35985-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 35985-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 35985-2022.docx", "A 35985-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 35985-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 35985-2022.docx", "A 35985-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 35985-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 35985-2022.docx", "A 35985-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 35985-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 35985-2022.docx", "A 35985-2022")</f>
         <v/>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2640,27 +2640,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 1915-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 1915-2019.xlsx", "A 1915-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 1915-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 1915-2019.png", "A 1915-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 1915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 1915-2019.docx", "A 1915-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 1915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 1915-2019.docx", "A 1915-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 1915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 1915-2019.docx", "A 1915-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 1915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 1915-2019.docx", "A 1915-2019")</f>
         <v/>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2729,27 +2729,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 5644-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 5644-2019.xlsx", "A 5644-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 5644-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 5644-2019.png", "A 5644-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 5644-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 5644-2019.docx", "A 5644-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 5644-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 5644-2019.docx", "A 5644-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 5644-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 5644-2019.docx", "A 5644-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 5644-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 5644-2019.docx", "A 5644-2019")</f>
         <v/>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,27 +2823,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 68600-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 68600-2020.xlsx", "A 68600-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 68600-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 68600-2020.png", "A 68600-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 68600-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 68600-2020.docx", "A 68600-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 68600-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 68600-2020.docx", "A 68600-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 68600-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 68600-2020.docx", "A 68600-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 68600-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 68600-2020.docx", "A 68600-2020")</f>
         <v/>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,27 +2912,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 49036-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 49036-2021.xlsx", "A 49036-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 49036-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 49036-2021.png", "A 49036-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 49036-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 49036-2021.docx", "A 49036-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 49036-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 49036-2021.docx", "A 49036-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 49036-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 49036-2021.docx", "A 49036-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 49036-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 49036-2021.docx", "A 49036-2021")</f>
         <v/>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3006,27 +3006,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 7229-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 7229-2022.xlsx", "A 7229-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 7229-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 7229-2022.png", "A 7229-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 7229-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 7229-2022.docx", "A 7229-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 7229-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 7229-2022.docx", "A 7229-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 7229-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 7229-2022.docx", "A 7229-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 7229-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 7229-2022.docx", "A 7229-2022")</f>
         <v/>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,27 +3100,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 33633-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 33633-2022.xlsx", "A 33633-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 33633-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 33633-2022.png", "A 33633-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 33633-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 33633-2022.docx", "A 33633-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 33633-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 33633-2022.docx", "A 33633-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 33633-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 33633-2022.docx", "A 33633-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 33633-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 33633-2022.docx", "A 33633-2022")</f>
         <v/>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3194,27 +3194,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 55280-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 55280-2022.xlsx", "A 55280-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 55280-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 55280-2022.png", "A 55280-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 55280-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 55280-2022.docx", "A 55280-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 55280-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 55280-2022.docx", "A 55280-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 55280-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 55280-2022.docx", "A 55280-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 55280-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 55280-2022.docx", "A 55280-2022")</f>
         <v/>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3282,27 +3282,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 48630-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 48630-2022.xlsx", "A 48630-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 48630-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 48630-2022.png", "A 48630-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 48630-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 48630-2022.docx", "A 48630-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 48630-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 48630-2022.docx", "A 48630-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 48630-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 48630-2022.docx", "A 48630-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 48630-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 48630-2022.docx", "A 48630-2022")</f>
         <v/>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3375,27 +3375,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 19521-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 19521-2023.xlsx", "A 19521-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 19521-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 19521-2023.png", "A 19521-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 19521-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 19521-2023.docx", "A 19521-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 19521-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 19521-2023.docx", "A 19521-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 19521-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 19521-2023.docx", "A 19521-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 19521-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 19521-2023.docx", "A 19521-2023")</f>
         <v/>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3467,31 +3467,31 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 21895-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 21895-2019.xlsx", "A 21895-2019")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 21895-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 21895-2019.png", "A 21895-2019")</f>
         <v/>
       </c>
       <c r="U32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 21895-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 21895-2019.png", "A 21895-2019")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 21895-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 21895-2019.docx", "A 21895-2019")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 21895-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 21895-2019.docx", "A 21895-2019")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 21895-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 21895-2019.docx", "A 21895-2019")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 21895-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 21895-2019.docx", "A 21895-2019")</f>
         <v/>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3558,27 +3558,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 49922-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 49922-2021.xlsx", "A 49922-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 49922-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 49922-2021.png", "A 49922-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 49922-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 49922-2021.docx", "A 49922-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 49922-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 49922-2021.docx", "A 49922-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 49922-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 49922-2021.docx", "A 49922-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 49922-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 49922-2021.docx", "A 49922-2021")</f>
         <v/>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3644,27 +3644,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 116-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 116-2020.xlsx", "A 116-2020")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 116-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 116-2020.png", "A 116-2020")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 116-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 116-2020.docx", "A 116-2020")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 116-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 116-2020.docx", "A 116-2020")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 116-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 116-2020.docx", "A 116-2020")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 116-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 116-2020.docx", "A 116-2020")</f>
         <v/>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3735,27 +3735,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 14255-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 14255-2020.xlsx", "A 14255-2020")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 14255-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 14255-2020.png", "A 14255-2020")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 14255-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 14255-2020.docx", "A 14255-2020")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 14255-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 14255-2020.docx", "A 14255-2020")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 14255-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 14255-2020.docx", "A 14255-2020")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 14255-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 14255-2020.docx", "A 14255-2020")</f>
         <v/>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3821,31 +3821,31 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 43503-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 43503-2020.xlsx", "A 43503-2020")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 43503-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 43503-2020.png", "A 43503-2020")</f>
         <v/>
       </c>
       <c r="U36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 43503-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 43503-2020.png", "A 43503-2020")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 43503-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 43503-2020.docx", "A 43503-2020")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 43503-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 43503-2020.docx", "A 43503-2020")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 43503-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 43503-2020.docx", "A 43503-2020")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 43503-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 43503-2020.docx", "A 43503-2020")</f>
         <v/>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3916,27 +3916,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 48935-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 48935-2020.xlsx", "A 48935-2020")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 48935-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 48935-2020.png", "A 48935-2020")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 48935-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 48935-2020.docx", "A 48935-2020")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 48935-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 48935-2020.docx", "A 48935-2020")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 48935-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 48935-2020.docx", "A 48935-2020")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 48935-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 48935-2020.docx", "A 48935-2020")</f>
         <v/>
       </c>
     </row>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4002,31 +4002,31 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 39528-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 39528-2021.xlsx", "A 39528-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 39528-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 39528-2021.png", "A 39528-2021")</f>
         <v/>
       </c>
       <c r="U38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 39528-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 39528-2021.png", "A 39528-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 39528-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 39528-2021.docx", "A 39528-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 39528-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 39528-2021.docx", "A 39528-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 39528-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 39528-2021.docx", "A 39528-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 39528-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 39528-2021.docx", "A 39528-2021")</f>
         <v/>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4097,27 +4097,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 29206-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 29206-2022.xlsx", "A 29206-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 29206-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 29206-2022.png", "A 29206-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 29206-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 29206-2022.docx", "A 29206-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 29206-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 29206-2022.docx", "A 29206-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 29206-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 29206-2022.docx", "A 29206-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 29206-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 29206-2022.docx", "A 29206-2022")</f>
         <v/>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4188,27 +4188,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 23838-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 23838-2023.xlsx", "A 23838-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 23838-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 23838-2023.png", "A 23838-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 23838-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 23838-2023.docx", "A 23838-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 23838-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 23838-2023.docx", "A 23838-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 23838-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 23838-2023.docx", "A 23838-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 23838-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 23838-2023.docx", "A 23838-2023")</f>
         <v/>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4278,27 +4278,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 28268-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 28268-2019.xlsx", "A 28268-2019")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 28268-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 28268-2019.png", "A 28268-2019")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 28268-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 28268-2019.docx", "A 28268-2019")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 28268-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 28268-2019.docx", "A 28268-2019")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 28268-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 28268-2019.docx", "A 28268-2019")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 28268-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 28268-2019.docx", "A 28268-2019")</f>
         <v/>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4363,27 +4363,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 33547-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 33547-2019.xlsx", "A 33547-2019")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 33547-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 33547-2019.png", "A 33547-2019")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 33547-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 33547-2019.docx", "A 33547-2019")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 33547-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 33547-2019.docx", "A 33547-2019")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 33547-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 33547-2019.docx", "A 33547-2019")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 33547-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 33547-2019.docx", "A 33547-2019")</f>
         <v/>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4453,27 +4453,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 48604-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 48604-2019.xlsx", "A 48604-2019")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 48604-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 48604-2019.png", "A 48604-2019")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 48604-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 48604-2019.docx", "A 48604-2019")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 48604-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 48604-2019.docx", "A 48604-2019")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 48604-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 48604-2019.docx", "A 48604-2019")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 48604-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 48604-2019.docx", "A 48604-2019")</f>
         <v/>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4543,27 +4543,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 1597-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 1597-2020.xlsx", "A 1597-2020")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 1597-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 1597-2020.png", "A 1597-2020")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 1597-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 1597-2020.docx", "A 1597-2020")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 1597-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 1597-2020.docx", "A 1597-2020")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 1597-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 1597-2020.docx", "A 1597-2020")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 1597-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 1597-2020.docx", "A 1597-2020")</f>
         <v/>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4633,27 +4633,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 14362-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 14362-2020.xlsx", "A 14362-2020")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 14362-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 14362-2020.png", "A 14362-2020")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 14362-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 14362-2020.docx", "A 14362-2020")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 14362-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 14362-2020.docx", "A 14362-2020")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 14362-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 14362-2020.docx", "A 14362-2020")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 14362-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 14362-2020.docx", "A 14362-2020")</f>
         <v/>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,27 +4723,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 16382-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 16382-2020.xlsx", "A 16382-2020")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 16382-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 16382-2020.png", "A 16382-2020")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 16382-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 16382-2020.docx", "A 16382-2020")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 16382-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 16382-2020.docx", "A 16382-2020")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 16382-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 16382-2020.docx", "A 16382-2020")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 16382-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 16382-2020.docx", "A 16382-2020")</f>
         <v/>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
         <v>43942</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4813,27 +4813,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 19852-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 19852-2020.xlsx", "A 19852-2020")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 19852-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 19852-2020.png", "A 19852-2020")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 19852-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 19852-2020.docx", "A 19852-2020")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 19852-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 19852-2020.docx", "A 19852-2020")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 19852-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 19852-2020.docx", "A 19852-2020")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 19852-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 19852-2020.docx", "A 19852-2020")</f>
         <v/>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
         <v>44007</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4898,27 +4898,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 30137-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 30137-2020.xlsx", "A 30137-2020")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 30137-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 30137-2020.png", "A 30137-2020")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 30137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 30137-2020.docx", "A 30137-2020")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 30137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 30137-2020.docx", "A 30137-2020")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 30137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 30137-2020.docx", "A 30137-2020")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 30137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 30137-2020.docx", "A 30137-2020")</f>
         <v/>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
         <v>44174</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4988,27 +4988,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 65637-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 65637-2020.xlsx", "A 65637-2020")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 65637-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 65637-2020.png", "A 65637-2020")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 65637-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 65637-2020.docx", "A 65637-2020")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 65637-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 65637-2020.docx", "A 65637-2020")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 65637-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 65637-2020.docx", "A 65637-2020")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 65637-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 65637-2020.docx", "A 65637-2020")</f>
         <v/>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
         <v>44526</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5073,27 +5073,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 68162-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 68162-2021.xlsx", "A 68162-2021")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 68162-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 68162-2021.png", "A 68162-2021")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 68162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 68162-2021.docx", "A 68162-2021")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 68162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 68162-2021.docx", "A 68162-2021")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 68162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 68162-2021.docx", "A 68162-2021")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 68162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 68162-2021.docx", "A 68162-2021")</f>
         <v/>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
         <v>44726</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5163,27 +5163,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 24451-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 24451-2022.xlsx", "A 24451-2022")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 24451-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 24451-2022.png", "A 24451-2022")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 24451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 24451-2022.docx", "A 24451-2022")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 24451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 24451-2022.docx", "A 24451-2022")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 24451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 24451-2022.docx", "A 24451-2022")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 24451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 24451-2022.docx", "A 24451-2022")</f>
         <v/>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
         <v>44768</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5253,27 +5253,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 30963-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 30963-2022.xlsx", "A 30963-2022")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 30963-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 30963-2022.png", "A 30963-2022")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 30963-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 30963-2022.docx", "A 30963-2022")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 30963-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 30963-2022.docx", "A 30963-2022")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 30963-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 30963-2022.docx", "A 30963-2022")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 30963-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 30963-2022.docx", "A 30963-2022")</f>
         <v/>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
         <v>44792</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5343,27 +5343,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 34345-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 34345-2022.xlsx", "A 34345-2022")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 34345-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 34345-2022.png", "A 34345-2022")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 34345-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 34345-2022.docx", "A 34345-2022")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 34345-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 34345-2022.docx", "A 34345-2022")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 34345-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 34345-2022.docx", "A 34345-2022")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 34345-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 34345-2022.docx", "A 34345-2022")</f>
         <v/>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5428,27 +5428,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 41884-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 41884-2022.xlsx", "A 41884-2022")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 41884-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 41884-2022.png", "A 41884-2022")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 41884-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 41884-2022.docx", "A 41884-2022")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 41884-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 41884-2022.docx", "A 41884-2022")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 41884-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 41884-2022.docx", "A 41884-2022")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 41884-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 41884-2022.docx", "A 41884-2022")</f>
         <v/>
       </c>
     </row>
@@ -5462,7 +5462,7 @@
         <v>44977</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5513,27 +5513,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 8636-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 8636-2023.xlsx", "A 8636-2023")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 8636-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 8636-2023.png", "A 8636-2023")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 8636-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 8636-2023.docx", "A 8636-2023")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 8636-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 8636-2023.docx", "A 8636-2023")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 8636-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 8636-2023.docx", "A 8636-2023")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 8636-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 8636-2023.docx", "A 8636-2023")</f>
         <v/>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
         <v>45012</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5598,31 +5598,31 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 14449-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/artfynd/A 14449-2023.xlsx", "A 14449-2023")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 14449-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/kartor/A 14449-2023.png", "A 14449-2023")</f>
         <v/>
       </c>
       <c r="U56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 14449-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 14449-2023.png", "A 14449-2023")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 14449-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 14449-2023.docx", "A 14449-2023")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 14449-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 14449-2023.docx", "A 14449-2023")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 14449-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 14449-2023.docx", "A 14449-2023")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 14449-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 14449-2023.docx", "A 14449-2023")</f>
         <v/>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
         <v>43314</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43318</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43328</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43339</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43362</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43369</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43377</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43383</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43392</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43418</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43452</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43497</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43507</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43528</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43538</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43539</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43542</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43545</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43552</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43558</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43580</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43581</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43585</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43588</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43591</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43594</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43595</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43599</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43605</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>43606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>43607</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>43609</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>43612</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>43613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43616</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>43623</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43640</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43641</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>43642</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43643</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>43644</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43651</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43658</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43665</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43672</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43676</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43690</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43713</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>43718</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>43720</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>43721</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>43725</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>43726</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43727</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43731</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>43733</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43734</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43738</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>43740</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>43741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43745</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43748</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43770</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43775</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>43776</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>43780</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>43782</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>43783</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43786</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>43790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>43791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>43795</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43796</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43797</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43803</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43807</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43811</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43812</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>43816</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>43832</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>43832</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43837</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>43837</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>43843</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>43847</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>43860</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>43867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43873</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>43873</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>43875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>43875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>43887</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>43893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>43893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>43894</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>43901</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43906</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43909</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>43910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>43910</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>43910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43921</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43922</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>43923</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>43937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43944</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>43945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>43945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43948</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43950</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43951</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43951</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>43955</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>43958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>43962</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43965</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>43966</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43969</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>43971</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>43971</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>43980</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21558,23 +21558,23 @@
       </c>
       <c r="R327" s="2" t="inlineStr"/>
       <c r="U327">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 25270-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 25270-2020.png", "A 25270-2020")</f>
         <v/>
       </c>
       <c r="V327">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 25270-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 25270-2020.docx", "A 25270-2020")</f>
         <v/>
       </c>
       <c r="W327">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 25270-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 25270-2020.docx", "A 25270-2020")</f>
         <v/>
       </c>
       <c r="X327">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 25270-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 25270-2020.docx", "A 25270-2020")</f>
         <v/>
       </c>
       <c r="Y327">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 25270-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 25270-2020.docx", "A 25270-2020")</f>
         <v/>
       </c>
     </row>
@@ -21588,7 +21588,7 @@
         <v>43980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>43984</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>43985</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>43986</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>43992</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>43993</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>43993</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>43999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>43999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44005</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44006</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44011</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44014</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44018</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44018</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44019</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44020</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44020</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44020</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>44022</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44025</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44025</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44026</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44026</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44028</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44047</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44055</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44056</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44063</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44064</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44064</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44067</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44067</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44069</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44070</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44070</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44071</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44071</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44071</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>44077</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>44077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>44077</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44081</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44083</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44084</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44084</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44085</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44088</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44090</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44091</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44091</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44092</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44092</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44096</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44097</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44098</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44102</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44102</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44104</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44106</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>44106</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>44109</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44109</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44113</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44113</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44120</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44123</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44123</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44123</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44124</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44131</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44133</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44133</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44137</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>44137</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44137</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44137</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44144</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44144</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44150</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44151</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44153</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44153</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44158</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44158</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44162</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44168</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44168</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44172</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44172</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44174</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44174</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44174</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44176</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44177</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>44177</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>44179</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44179</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44180</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44183</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44193</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>44195</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44195</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>44201</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>44210</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>44216</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44216</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44221</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44223</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44225</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44231</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44232</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44236</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44237</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44237</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44238</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44238</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44239</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>44239</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>44239</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44239</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44244</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44244</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44249</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44256</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44263</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44285</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44295</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44305</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44308</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44312</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44313</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44316</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44316</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44322</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44330</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>44333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44335</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44337</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44349</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44355</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44357</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44361</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>44361</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31768,7 +31768,7 @@
         <v>44361</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         <v>44361</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44362</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44362</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>44363</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44368</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>44369</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>44369</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44378</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>44378</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>44378</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44383</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44384</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44386</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>44393</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44404</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44412</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>44421</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>44439</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44452</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44453</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44454</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44455</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44460</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>44462</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>44463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>44473</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>44473</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>44475</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>44475</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>44475</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>44475</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>44477</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44480</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33967,7 +33967,7 @@
         <v>44483</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44484</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44484</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44491</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44496</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44496</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44503</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44503</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44509</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>44511</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>44517</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44522</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44523</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34909,7 +34909,7 @@
         <v>44524</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         <v>44526</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44529</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35090,7 +35090,7 @@
         <v>44529</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44535</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44536</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44536</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35380,7 +35380,7 @@
         <v>44539</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
         <v>44545</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>44546</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44546</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>44557</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>44566</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44566</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>44568</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>44571</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35908,7 +35908,7 @@
         <v>44573</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35965,7 +35965,7 @@
         <v>44574</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36027,7 +36027,7 @@
         <v>44574</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>44578</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44578</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>44592</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36260,7 +36260,7 @@
         <v>44594</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36317,7 +36317,7 @@
         <v>44607</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36374,7 +36374,7 @@
         <v>44610</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44610</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36488,7 +36488,7 @@
         <v>44610</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36545,7 +36545,7 @@
         <v>44610</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44610</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44613</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>44627</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>44627</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>44627</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>44649</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44649</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44649</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>44655</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>44658</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44664</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44670</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44676</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44678</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37420,7 +37420,7 @@
         <v>44685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37477,7 +37477,7 @@
         <v>44690</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>44691</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>44694</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>44697</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>44697</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>44700</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44700</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44705</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44706</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44711</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44711</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38139,7 +38139,7 @@
         <v>44712</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38201,7 +38201,7 @@
         <v>44712</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38263,7 +38263,7 @@
         <v>44712</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38320,7 +38320,7 @@
         <v>44728</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38382,7 +38382,7 @@
         <v>44739</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44762</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44767</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38625,7 +38625,7 @@
         <v>44767</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38682,7 +38682,7 @@
         <v>44768</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38744,7 +38744,7 @@
         <v>44768</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>44781</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>44781</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>44789</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38982,7 +38982,7 @@
         <v>44790</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39039,7 +39039,7 @@
         <v>44790</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44792</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44792</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44797</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44798</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44803</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44804</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>44806</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44810</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39758,7 +39758,7 @@
         <v>44810</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39815,7 +39815,7 @@
         <v>44811</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44813</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39929,7 +39929,7 @@
         <v>44817</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44817</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44818</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>44818</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>44820</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>44825</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>44825</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44825</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44825</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40529,7 +40529,7 @@
         <v>44838</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44839</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44846</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>44847</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44847</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40891,7 +40891,7 @@
         <v>44847</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40953,7 +40953,7 @@
         <v>44848</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44862</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44862</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41124,7 +41124,7 @@
         <v>44866</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44867</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44869</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44872</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>44872</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>44874</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41476,7 +41476,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>44883</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>44887</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41699,23 +41699,23 @@
       </c>
       <c r="R670" s="2" t="inlineStr"/>
       <c r="U670">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 55253-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 55253-2022.png", "A 55253-2022")</f>
         <v/>
       </c>
       <c r="V670">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 55253-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 55253-2022.docx", "A 55253-2022")</f>
         <v/>
       </c>
       <c r="W670">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 55253-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 55253-2022.docx", "A 55253-2022")</f>
         <v/>
       </c>
       <c r="X670">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 55253-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 55253-2022.docx", "A 55253-2022")</f>
         <v/>
       </c>
       <c r="Y670">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 55253-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 55253-2022.docx", "A 55253-2022")</f>
         <v/>
       </c>
     </row>
@@ -41729,7 +41729,7 @@
         <v>44887</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41791,7 +41791,7 @@
         <v>44893</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>44894</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44894</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44895</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42091,7 +42091,7 @@
         <v>44897</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42153,7 +42153,7 @@
         <v>44903</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42210,7 +42210,7 @@
         <v>44903</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42272,7 +42272,7 @@
         <v>44908</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42329,7 +42329,7 @@
         <v>44908</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>44908</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>44908</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>44908</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42567,7 +42567,7 @@
         <v>44909</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44910</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>44910</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>44910</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>44910</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>44910</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>44910</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44911</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44911</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44914</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>44914</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>44914</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         <v>44914</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44915</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44916</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44918</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>44923</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44930</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44939</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44939</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44942</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43918,7 +43918,7 @@
         <v>44943</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43975,7 +43975,7 @@
         <v>44946</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>44946</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44952</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44952</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>44953</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44275,7 +44275,7 @@
         <v>44953</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>44958</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>44958</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>44958</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>44959</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44565,7 +44565,7 @@
         <v>44963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44627,7 +44627,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44684,7 +44684,7 @@
         <v>44966</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44741,7 +44741,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44969</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44972</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44972</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44978</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45259,7 +45259,7 @@
         <v>44979</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44980</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44984</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44986</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44986</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44986</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44987</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>44987</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>44992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>44992</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45844,7 +45844,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44993</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44993</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>45000</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46134,7 +46134,7 @@
         <v>45005</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46191,7 +46191,7 @@
         <v>45005</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46248,7 +46248,7 @@
         <v>45005</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46310,7 +46310,7 @@
         <v>45008</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46367,7 +46367,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46424,7 +46424,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>45014</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>45015</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>45015</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>45019</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46771,7 +46771,7 @@
         <v>45019</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46828,7 +46828,7 @@
         <v>45020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46885,7 +46885,7 @@
         <v>45021</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46942,7 +46942,7 @@
         <v>45022</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46999,7 +46999,7 @@
         <v>45022</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47046,23 +47046,23 @@
       </c>
       <c r="R761" s="2" t="inlineStr"/>
       <c r="U761">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 15883-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 15883-2023.png", "A 15883-2023")</f>
         <v/>
       </c>
       <c r="V761">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 15883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 15883-2023.docx", "A 15883-2023")</f>
         <v/>
       </c>
       <c r="W761">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 15883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 15883-2023.docx", "A 15883-2023")</f>
         <v/>
       </c>
       <c r="X761">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 15883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 15883-2023.docx", "A 15883-2023")</f>
         <v/>
       </c>
       <c r="Y761">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 15883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 15883-2023.docx", "A 15883-2023")</f>
         <v/>
       </c>
     </row>
@@ -47076,7 +47076,7 @@
         <v>45022</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>45027</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47190,7 +47190,7 @@
         <v>45027</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47247,7 +47247,7 @@
         <v>45028</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>45033</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>45033</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>45033</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47475,7 +47475,7 @@
         <v>45034</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47532,7 +47532,7 @@
         <v>45035</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47589,7 +47589,7 @@
         <v>45035</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45040</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47760,7 +47760,7 @@
         <v>45041</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45041</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47874,7 +47874,7 @@
         <v>45042</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47931,7 +47931,7 @@
         <v>45044</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>45044</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>45048</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48107,7 +48107,7 @@
         <v>45048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45048</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45048</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45048</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45048</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>45049</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48449,7 +48449,7 @@
         <v>45050</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45050</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48630,7 +48630,7 @@
         <v>45051</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48687,7 +48687,7 @@
         <v>45054</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>45054</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>45054</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>45055</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>45055</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>45055</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>45055</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>45056</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49148,7 +49148,7 @@
         <v>45057</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49205,7 +49205,7 @@
         <v>45057</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49262,7 +49262,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49319,7 +49319,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49376,7 +49376,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49723,7 +49723,7 @@
         <v>45068</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49780,7 +49780,7 @@
         <v>45070</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45071</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45072</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45075</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>45075</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50080,7 +50080,7 @@
         <v>45075</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50137,7 +50137,7 @@
         <v>45076</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50199,7 +50199,7 @@
         <v>45078</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50246,23 +50246,23 @@
       </c>
       <c r="R816" s="2" t="inlineStr"/>
       <c r="U816">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 23787-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/knärot/A 23787-2023.png", "A 23787-2023")</f>
         <v/>
       </c>
       <c r="V816">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 23787-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomål/A 23787-2023.docx", "A 23787-2023")</f>
         <v/>
       </c>
       <c r="W816">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 23787-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/klagomålsmail/A 23787-2023.docx", "A 23787-2023")</f>
         <v/>
       </c>
       <c r="X816">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 23787-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsyn/A 23787-2023.docx", "A 23787-2023")</f>
         <v/>
       </c>
       <c r="Y816">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 23787-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDIKSVALL/tillsynsmail/A 23787-2023.docx", "A 23787-2023")</f>
         <v/>
       </c>
     </row>
@@ -50276,7 +50276,7 @@
         <v>45078</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50338,7 +50338,7 @@
         <v>45078</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45078</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50462,7 +50462,7 @@
         <v>45079</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45079</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50576,7 +50576,7 @@
         <v>45079</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50633,7 +50633,7 @@
         <v>45079</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50690,7 +50690,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45082</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50980,7 +50980,7 @@
         <v>45096</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51037,7 +51037,7 @@
         <v>45096</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51094,7 +51094,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45097</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51218,7 +51218,7 @@
         <v>45098</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51280,7 +51280,7 @@
         <v>45098</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51337,7 +51337,7 @@
         <v>45098</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>45099</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>45099</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>45099</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45103</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>45106</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51679,7 +51679,7 @@
         <v>45110</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51736,7 +51736,7 @@
         <v>45110</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51793,7 +51793,7 @@
         <v>45110</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51850,7 +51850,7 @@
         <v>45111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51907,7 +51907,7 @@
         <v>45118</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45124</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45142</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52078,7 +52078,7 @@
         <v>45145</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52140,7 +52140,7 @@
         <v>45146</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52197,7 +52197,7 @@
         <v>45146</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45147</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45147</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52383,7 +52383,7 @@
         <v>45147</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45147</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52497,7 +52497,7 @@
         <v>45147</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45147</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45147</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52678,7 +52678,7 @@
         <v>45149</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>45149</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52797,7 +52797,7 @@
         <v>45160</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52854,7 +52854,7 @@
         <v>45160</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52911,7 +52911,7 @@
         <v>45160</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52968,7 +52968,7 @@
         <v>45162</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53025,7 +53025,7 @@
         <v>45162</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53082,7 +53082,7 @@
         <v>45162</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53144,7 +53144,7 @@
         <v>45168</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53201,7 +53201,7 @@
         <v>45175</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53258,7 +53258,7 @@
         <v>45176</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53320,7 +53320,7 @@
         <v>45180</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53377,7 +53377,7 @@
         <v>45180</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>

--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y870"/>
+  <dimension ref="A1:Y871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43942</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44007</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44174</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44526</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44726</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44768</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44792</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44977</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>45012</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43314</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43318</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43328</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43339</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43362</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43369</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43377</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43383</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43392</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43418</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43452</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43497</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43507</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43528</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43538</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43539</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43542</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43545</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43552</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43558</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43580</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43581</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43585</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43588</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43591</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43594</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43595</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43599</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43605</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>43606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>43607</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>43609</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>43612</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>43613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43616</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>43623</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43640</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43641</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>43642</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43643</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>43644</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43651</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43658</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43665</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43672</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43676</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43690</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43713</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>43718</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>43720</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>43721</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>43725</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>43726</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43727</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43731</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>43733</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43734</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43738</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>43740</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>43741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43745</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43748</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43770</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43775</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>43776</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>43780</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>43782</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>43783</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43786</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>43790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>43791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>43795</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43796</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43797</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43803</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43807</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43811</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43812</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>43816</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>43832</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>43832</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43837</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>43837</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>43843</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>43847</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>43860</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>43867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43873</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>43873</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>43875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>43875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>43887</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>43893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>43893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>43894</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>43901</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43906</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43909</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>43910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>43910</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>43910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43921</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43922</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>43923</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>43937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43944</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>43945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>43945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43948</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43950</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43951</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43951</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>43955</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>43958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>43962</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43965</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>43966</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43969</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>43971</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>43971</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>43980</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>43980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>43984</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>43985</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>43986</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>43992</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>43993</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>43993</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>43999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>43999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44005</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44006</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44011</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44014</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44018</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44018</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44019</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44020</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44020</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44020</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>44022</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44025</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44025</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44026</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44026</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44028</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44047</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44055</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44056</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44063</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44064</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44064</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44067</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44067</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44069</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44070</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44070</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44071</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44071</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44071</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>44077</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>44077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>44077</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44081</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44083</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44084</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44084</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44085</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44088</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44090</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44091</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44091</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44092</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44092</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44096</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44097</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44098</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44102</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44102</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44104</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44106</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>44106</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>44109</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44109</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44113</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44113</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44120</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44123</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44123</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44123</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44124</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44131</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44133</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44133</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44137</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>44137</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44137</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44137</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44144</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44144</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44150</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44151</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44153</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44153</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44158</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44158</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44162</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44168</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44168</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44172</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44172</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44174</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44174</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44174</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44176</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44177</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>44177</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>44179</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44179</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44180</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44183</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44193</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>44195</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44195</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>44201</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>44210</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>44216</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44216</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44221</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44223</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44225</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44231</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44232</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44236</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44237</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44237</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44238</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44238</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44239</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>44239</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>44239</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44239</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44244</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44244</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44249</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44256</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44263</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44285</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44295</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44305</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44308</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44312</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44313</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44316</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44316</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44322</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44330</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>44333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44335</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44337</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44349</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44355</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44357</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44361</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>44361</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31768,7 +31768,7 @@
         <v>44361</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         <v>44361</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44362</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44362</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>44363</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44368</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>44369</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>44369</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44378</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>44378</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>44378</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44383</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44384</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44386</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>44393</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44404</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44412</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>44421</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>44439</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44452</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44453</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44454</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44455</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44460</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>44462</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>44463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>44473</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>44473</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>44475</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>44475</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>44475</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>44475</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>44477</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44480</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33967,7 +33967,7 @@
         <v>44483</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44484</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44484</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44491</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44496</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44496</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44503</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44503</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44509</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>44511</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>44517</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44522</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44523</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34909,7 +34909,7 @@
         <v>44524</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         <v>44526</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44529</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35090,7 +35090,7 @@
         <v>44529</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44535</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44536</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44536</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35380,7 +35380,7 @@
         <v>44539</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
         <v>44545</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>44546</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44546</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>44557</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>44566</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44566</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>44568</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>44571</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35908,7 +35908,7 @@
         <v>44573</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35965,7 +35965,7 @@
         <v>44574</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36027,7 +36027,7 @@
         <v>44574</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>44578</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44578</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>44592</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36260,7 +36260,7 @@
         <v>44594</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36317,7 +36317,7 @@
         <v>44607</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36374,7 +36374,7 @@
         <v>44610</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44610</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36488,7 +36488,7 @@
         <v>44610</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36545,7 +36545,7 @@
         <v>44610</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44610</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44613</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>44627</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>44627</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>44627</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>44649</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44649</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44649</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>44655</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>44658</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44664</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44670</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44676</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44678</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37420,7 +37420,7 @@
         <v>44685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37477,7 +37477,7 @@
         <v>44690</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>44691</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>44694</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>44697</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>44697</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>44700</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44700</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44705</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44706</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44711</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44711</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38139,7 +38139,7 @@
         <v>44712</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38201,7 +38201,7 @@
         <v>44712</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38263,7 +38263,7 @@
         <v>44712</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38320,7 +38320,7 @@
         <v>44728</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38382,7 +38382,7 @@
         <v>44739</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44762</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44767</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38625,7 +38625,7 @@
         <v>44767</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38682,7 +38682,7 @@
         <v>44768</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38744,7 +38744,7 @@
         <v>44768</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>44781</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>44781</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>44789</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38982,7 +38982,7 @@
         <v>44790</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39039,7 +39039,7 @@
         <v>44790</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44792</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44792</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44797</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44798</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44803</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44804</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>44806</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44810</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39758,7 +39758,7 @@
         <v>44810</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39815,7 +39815,7 @@
         <v>44811</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44813</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39929,7 +39929,7 @@
         <v>44817</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44817</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44818</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>44818</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>44820</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>44825</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>44825</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44825</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44825</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40529,7 +40529,7 @@
         <v>44838</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44839</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44846</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>44847</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44847</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40891,7 +40891,7 @@
         <v>44847</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40953,7 +40953,7 @@
         <v>44848</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44862</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44862</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41124,7 +41124,7 @@
         <v>44866</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44867</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44869</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44872</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>44872</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>44874</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41476,7 +41476,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>44883</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>44887</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41729,7 +41729,7 @@
         <v>44887</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41791,7 +41791,7 @@
         <v>44893</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>44894</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44894</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44895</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42091,7 +42091,7 @@
         <v>44897</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42153,7 +42153,7 @@
         <v>44903</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42210,7 +42210,7 @@
         <v>44903</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42272,7 +42272,7 @@
         <v>44908</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42329,7 +42329,7 @@
         <v>44908</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>44908</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>44908</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>44908</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42567,7 +42567,7 @@
         <v>44909</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44910</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>44910</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>44910</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>44910</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>44910</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>44910</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44911</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44911</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44914</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>44914</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>44914</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         <v>44914</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44915</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44916</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44918</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>44923</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44930</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44939</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44939</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44942</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43918,7 +43918,7 @@
         <v>44943</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43975,7 +43975,7 @@
         <v>44946</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>44946</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44952</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44952</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>44953</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44275,7 +44275,7 @@
         <v>44953</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>44958</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>44958</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>44958</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>44959</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44565,7 +44565,7 @@
         <v>44963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44627,7 +44627,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44684,7 +44684,7 @@
         <v>44966</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44741,7 +44741,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44969</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44972</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44972</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44978</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45259,7 +45259,7 @@
         <v>44979</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44980</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44984</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44986</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44986</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44986</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44987</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>44987</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>44992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>44992</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45844,7 +45844,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44993</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44993</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>45000</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46134,7 +46134,7 @@
         <v>45005</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46191,7 +46191,7 @@
         <v>45005</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46248,7 +46248,7 @@
         <v>45005</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46310,7 +46310,7 @@
         <v>45008</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46367,7 +46367,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46424,7 +46424,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>45014</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>45015</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>45015</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>45019</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46771,7 +46771,7 @@
         <v>45019</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46828,7 +46828,7 @@
         <v>45020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46885,7 +46885,7 @@
         <v>45021</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46942,7 +46942,7 @@
         <v>45022</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46999,7 +46999,7 @@
         <v>45022</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47076,7 +47076,7 @@
         <v>45022</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>45027</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47190,7 +47190,7 @@
         <v>45027</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47247,7 +47247,7 @@
         <v>45028</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>45033</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>45033</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>45033</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47475,7 +47475,7 @@
         <v>45034</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47532,7 +47532,7 @@
         <v>45035</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47589,7 +47589,7 @@
         <v>45035</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45040</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47760,7 +47760,7 @@
         <v>45041</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45041</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47874,7 +47874,7 @@
         <v>45042</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47931,7 +47931,7 @@
         <v>45044</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>45044</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>45048</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48107,7 +48107,7 @@
         <v>45048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45048</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45048</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45048</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45048</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>45049</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48449,7 +48449,7 @@
         <v>45050</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45050</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48630,7 +48630,7 @@
         <v>45051</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48687,7 +48687,7 @@
         <v>45054</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>45054</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>45054</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>45055</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>45055</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>45055</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>45055</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>45056</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49148,7 +49148,7 @@
         <v>45057</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49205,7 +49205,7 @@
         <v>45057</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49262,7 +49262,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49319,7 +49319,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49376,7 +49376,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49723,7 +49723,7 @@
         <v>45068</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49780,7 +49780,7 @@
         <v>45070</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45071</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45072</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45075</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>45075</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50080,7 +50080,7 @@
         <v>45075</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50137,7 +50137,7 @@
         <v>45076</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50199,7 +50199,7 @@
         <v>45078</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45078</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50338,7 +50338,7 @@
         <v>45078</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45078</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50462,7 +50462,7 @@
         <v>45079</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45079</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50576,7 +50576,7 @@
         <v>45079</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50633,7 +50633,7 @@
         <v>45079</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50690,7 +50690,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45082</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50980,7 +50980,7 @@
         <v>45096</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51037,7 +51037,7 @@
         <v>45096</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51094,7 +51094,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45097</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51218,7 +51218,7 @@
         <v>45098</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51280,7 +51280,7 @@
         <v>45098</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51337,7 +51337,7 @@
         <v>45098</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>45099</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>45099</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>45099</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45103</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>45106</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51679,7 +51679,7 @@
         <v>45110</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51736,7 +51736,7 @@
         <v>45110</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51793,7 +51793,7 @@
         <v>45110</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51850,7 +51850,7 @@
         <v>45111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51907,7 +51907,7 @@
         <v>45118</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45124</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45142</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52078,7 +52078,7 @@
         <v>45145</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52140,7 +52140,7 @@
         <v>45146</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52197,7 +52197,7 @@
         <v>45146</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45147</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45147</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52383,7 +52383,7 @@
         <v>45147</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45147</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52497,7 +52497,7 @@
         <v>45147</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45147</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45147</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52678,7 +52678,7 @@
         <v>45149</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>45149</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52797,7 +52797,7 @@
         <v>45160</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52854,7 +52854,7 @@
         <v>45160</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52911,7 +52911,7 @@
         <v>45160</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52968,7 +52968,7 @@
         <v>45162</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53025,7 +53025,7 @@
         <v>45162</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53082,7 +53082,7 @@
         <v>45162</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53144,7 +53144,7 @@
         <v>45168</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53201,7 +53201,7 @@
         <v>45175</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53258,7 +53258,7 @@
         <v>45176</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53320,7 +53320,7 @@
         <v>45180</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53367,7 +53367,7 @@
       </c>
       <c r="R869" s="2" t="inlineStr"/>
     </row>
-    <row r="870">
+    <row r="870" ht="15" customHeight="1">
       <c r="A870" t="inlineStr">
         <is>
           <t>A 42244-2023</t>
@@ -53377,7 +53377,7 @@
         <v>45180</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53423,6 +53423,63 @@
         <v>0</v>
       </c>
       <c r="R870" s="2" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>A 43659-2023</t>
+        </is>
+      </c>
+      <c r="B871" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C871" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>HUDIKSVALL</t>
+        </is>
+      </c>
+      <c r="G871" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H871" t="n">
+        <v>0</v>
+      </c>
+      <c r="I871" t="n">
+        <v>0</v>
+      </c>
+      <c r="J871" t="n">
+        <v>0</v>
+      </c>
+      <c r="K871" t="n">
+        <v>0</v>
+      </c>
+      <c r="L871" t="n">
+        <v>0</v>
+      </c>
+      <c r="M871" t="n">
+        <v>0</v>
+      </c>
+      <c r="N871" t="n">
+        <v>0</v>
+      </c>
+      <c r="O871" t="n">
+        <v>0</v>
+      </c>
+      <c r="P871" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>0</v>
+      </c>
+      <c r="R871" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43942</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44007</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44174</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44526</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44726</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44768</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44792</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44977</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>45012</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43314</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43318</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43328</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43339</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43362</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43369</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43377</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43383</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43392</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43418</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43452</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43497</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43507</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43528</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43538</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43539</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43542</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43545</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43552</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43558</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43580</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43581</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43585</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43588</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43591</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43594</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43595</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43599</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43605</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>43606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>43607</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>43609</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>43612</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>43613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43616</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>43623</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43640</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43641</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>43642</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43643</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>43644</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43651</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43658</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43665</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43672</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43676</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43690</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43713</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>43718</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>43720</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>43721</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>43725</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>43726</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43727</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43731</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>43733</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43734</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43738</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>43740</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>43741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43745</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43748</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43770</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43775</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>43776</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>43780</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>43782</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>43783</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43786</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>43790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>43791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>43795</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43796</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43797</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43802</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43803</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43807</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43811</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43812</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>43816</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>43832</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>43832</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43837</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>43837</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>43843</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>43847</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>43860</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>43867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43873</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>43873</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>43875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>43875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>43881</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>43887</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>43893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>43893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>43894</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>43901</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43906</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43909</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>43910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>43910</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>43910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43921</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43922</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>43923</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>43937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43944</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>43945</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>43945</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43948</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43950</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43951</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43951</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43951</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>43955</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>43958</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>43962</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43965</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>43966</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43969</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>43971</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>43971</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>43979</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>43980</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>43980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43980</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>43984</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>43985</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>43986</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>43992</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>43993</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>43993</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>43999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>43999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44005</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44006</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44011</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44014</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44018</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44018</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44019</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44020</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44020</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44020</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>44022</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44025</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44025</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44026</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44026</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44028</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44047</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44050</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44055</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44056</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44060</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44062</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44063</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44064</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44064</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44067</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>44067</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44069</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44070</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44070</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>44071</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>44071</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44071</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>44077</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>44077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>44077</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44081</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44083</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44084</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44084</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44085</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44088</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44090</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44091</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44091</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44092</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44092</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44096</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44097</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44098</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44102</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44102</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44104</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44106</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>44106</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>44109</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44109</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44113</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44113</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44120</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>44123</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44123</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44123</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44124</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44126</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44131</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44133</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44133</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44137</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>44137</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44137</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44137</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44144</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44144</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44150</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44151</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44153</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44153</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44158</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44158</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44162</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44168</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44168</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44172</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44172</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44174</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44174</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44174</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44174</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44176</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44177</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>44177</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>44179</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44179</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>44180</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>44180</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44180</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44181</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44183</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44193</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>44195</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44195</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>44201</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>44210</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>44216</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44216</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44221</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>44223</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>44225</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44231</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44232</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>44236</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44237</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44237</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44238</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44238</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44239</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>44239</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>44239</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44239</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44244</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44244</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44249</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44256</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44263</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44285</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44295</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44305</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44308</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44312</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44313</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44316</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44316</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44322</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44330</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>44333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44335</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44337</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44349</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44355</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44357</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44361</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>44361</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31768,7 +31768,7 @@
         <v>44361</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         <v>44361</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>44362</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>44362</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32011,7 +32011,7 @@
         <v>44363</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>44368</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>44369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>44369</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>44369</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>44375</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44378</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>44378</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>44378</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44383</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44384</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44386</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>44393</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44404</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44412</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>44421</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>44439</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44452</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44453</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44454</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44455</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44460</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>44462</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>44463</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>44473</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>44473</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>44475</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>44475</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>44475</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>44475</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>44477</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44480</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33967,7 +33967,7 @@
         <v>44483</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44484</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44484</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>44491</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>44496</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         <v>44496</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>44503</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>44503</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>44509</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>44511</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>44517</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>44522</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>44522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>44523</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34909,7 +34909,7 @@
         <v>44524</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         <v>44526</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44529</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35090,7 +35090,7 @@
         <v>44529</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35152,7 +35152,7 @@
         <v>44529</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>44535</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>44536</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35323,7 +35323,7 @@
         <v>44536</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35380,7 +35380,7 @@
         <v>44539</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
         <v>44545</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>44546</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44546</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>44557</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>44566</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>44566</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>44568</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>44571</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35908,7 +35908,7 @@
         <v>44573</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35965,7 +35965,7 @@
         <v>44574</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36027,7 +36027,7 @@
         <v>44574</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>44578</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>44578</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>44592</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36260,7 +36260,7 @@
         <v>44594</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36317,7 +36317,7 @@
         <v>44607</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36374,7 +36374,7 @@
         <v>44610</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44610</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36488,7 +36488,7 @@
         <v>44610</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36545,7 +36545,7 @@
         <v>44610</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36602,7 +36602,7 @@
         <v>44610</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36659,7 +36659,7 @@
         <v>44613</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>44627</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>44627</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>44627</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>44649</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>44649</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44649</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>44655</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>44658</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44664</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44670</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>44676</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44678</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37420,7 +37420,7 @@
         <v>44685</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37477,7 +37477,7 @@
         <v>44690</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>44691</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>44694</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>44697</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>44697</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>44700</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44700</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44705</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44706</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44711</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38077,7 +38077,7 @@
         <v>44711</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38139,7 +38139,7 @@
         <v>44712</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38201,7 +38201,7 @@
         <v>44712</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38263,7 +38263,7 @@
         <v>44712</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38320,7 +38320,7 @@
         <v>44728</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38382,7 +38382,7 @@
         <v>44739</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44746</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44762</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         <v>44767</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38625,7 +38625,7 @@
         <v>44767</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38682,7 +38682,7 @@
         <v>44768</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38744,7 +38744,7 @@
         <v>44768</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>44781</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>44781</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>44789</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38982,7 +38982,7 @@
         <v>44790</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39039,7 +39039,7 @@
         <v>44790</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44792</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44792</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44792</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44795</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44797</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44798</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44798</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44803</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44804</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>44806</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44810</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39758,7 +39758,7 @@
         <v>44810</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39815,7 +39815,7 @@
         <v>44811</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39872,7 +39872,7 @@
         <v>44813</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39929,7 +39929,7 @@
         <v>44817</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39991,7 +39991,7 @@
         <v>44817</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44818</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>44818</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>44820</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>44825</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>44825</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>44825</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>44825</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>44832</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40529,7 +40529,7 @@
         <v>44838</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44839</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>44846</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>44847</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40829,7 +40829,7 @@
         <v>44847</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40891,7 +40891,7 @@
         <v>44847</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40953,7 +40953,7 @@
         <v>44848</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41010,7 +41010,7 @@
         <v>44862</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41067,7 +41067,7 @@
         <v>44862</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41124,7 +41124,7 @@
         <v>44866</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44867</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41243,7 +41243,7 @@
         <v>44869</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41300,7 +41300,7 @@
         <v>44872</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>44872</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>44874</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41476,7 +41476,7 @@
         <v>44875</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41590,7 +41590,7 @@
         <v>44883</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41647,7 +41647,7 @@
         <v>44887</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41729,7 +41729,7 @@
         <v>44887</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41791,7 +41791,7 @@
         <v>44893</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>44894</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44894</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44895</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42091,7 +42091,7 @@
         <v>44897</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42153,7 +42153,7 @@
         <v>44903</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42210,7 +42210,7 @@
         <v>44903</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42272,7 +42272,7 @@
         <v>44908</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42329,7 +42329,7 @@
         <v>44908</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>44908</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>44908</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>44908</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42567,7 +42567,7 @@
         <v>44909</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>44910</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>44910</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>44910</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>44910</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>44910</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>44910</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44911</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44911</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44914</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>44914</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43214,7 +43214,7 @@
         <v>44914</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         <v>44914</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>44915</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>44916</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44918</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>44922</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>44923</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>44930</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>44937</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>44939</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44939</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43861,7 +43861,7 @@
         <v>44942</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43918,7 +43918,7 @@
         <v>44943</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43975,7 +43975,7 @@
         <v>44946</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>44946</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44952</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44952</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>44953</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44275,7 +44275,7 @@
         <v>44953</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>44958</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>44958</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>44958</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>44959</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44565,7 +44565,7 @@
         <v>44963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44627,7 +44627,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44684,7 +44684,7 @@
         <v>44966</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44741,7 +44741,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44798,7 +44798,7 @@
         <v>44969</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44855,7 +44855,7 @@
         <v>44972</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44912,7 +44912,7 @@
         <v>44972</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45031,7 +45031,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45088,7 +45088,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45145,7 +45145,7 @@
         <v>44978</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44978</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45259,7 +45259,7 @@
         <v>44979</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>44980</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45383,7 +45383,7 @@
         <v>44984</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45440,7 +45440,7 @@
         <v>44986</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>44986</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>44986</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45611,7 +45611,7 @@
         <v>44987</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>44987</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>44992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>44992</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45844,7 +45844,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45901,7 +45901,7 @@
         <v>44993</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45958,7 +45958,7 @@
         <v>44993</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46015,7 +46015,7 @@
         <v>45000</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46134,7 +46134,7 @@
         <v>45005</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46191,7 +46191,7 @@
         <v>45005</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46248,7 +46248,7 @@
         <v>45005</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46310,7 +46310,7 @@
         <v>45008</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46367,7 +46367,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46424,7 +46424,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>45014</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>45015</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>45015</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>45016</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46714,7 +46714,7 @@
         <v>45019</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46771,7 +46771,7 @@
         <v>45019</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46828,7 +46828,7 @@
         <v>45020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46885,7 +46885,7 @@
         <v>45021</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46942,7 +46942,7 @@
         <v>45022</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46999,7 +46999,7 @@
         <v>45022</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47076,7 +47076,7 @@
         <v>45022</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>45027</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47190,7 +47190,7 @@
         <v>45027</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47247,7 +47247,7 @@
         <v>45028</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47304,7 +47304,7 @@
         <v>45033</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47361,7 +47361,7 @@
         <v>45033</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>45033</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47475,7 +47475,7 @@
         <v>45034</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47532,7 +47532,7 @@
         <v>45035</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47589,7 +47589,7 @@
         <v>45035</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45040</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47760,7 +47760,7 @@
         <v>45041</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45041</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47874,7 +47874,7 @@
         <v>45042</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47931,7 +47931,7 @@
         <v>45044</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>45044</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48050,7 +48050,7 @@
         <v>45048</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48107,7 +48107,7 @@
         <v>45048</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45048</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45048</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45048</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45048</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>45049</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48449,7 +48449,7 @@
         <v>45050</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>45050</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48568,7 +48568,7 @@
         <v>45050</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48630,7 +48630,7 @@
         <v>45051</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48687,7 +48687,7 @@
         <v>45054</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48744,7 +48744,7 @@
         <v>45054</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48806,7 +48806,7 @@
         <v>45054</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48863,7 +48863,7 @@
         <v>45055</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48920,7 +48920,7 @@
         <v>45055</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48977,7 +48977,7 @@
         <v>45055</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49034,7 +49034,7 @@
         <v>45055</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49091,7 +49091,7 @@
         <v>45056</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49148,7 +49148,7 @@
         <v>45057</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49205,7 +49205,7 @@
         <v>45057</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49262,7 +49262,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49319,7 +49319,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49376,7 +49376,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49433,7 +49433,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49490,7 +49490,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49547,7 +49547,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49604,7 +49604,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49723,7 +49723,7 @@
         <v>45068</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49780,7 +49780,7 @@
         <v>45070</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45071</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45072</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45075</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50018,7 +50018,7 @@
         <v>45075</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50080,7 +50080,7 @@
         <v>45075</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50137,7 +50137,7 @@
         <v>45076</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50199,7 +50199,7 @@
         <v>45078</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>45078</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50338,7 +50338,7 @@
         <v>45078</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45078</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50462,7 +50462,7 @@
         <v>45079</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>45079</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50576,7 +50576,7 @@
         <v>45079</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50633,7 +50633,7 @@
         <v>45079</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50690,7 +50690,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45082</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50980,7 +50980,7 @@
         <v>45096</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51037,7 +51037,7 @@
         <v>45096</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51094,7 +51094,7 @@
         <v>45096</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45097</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51218,7 +51218,7 @@
         <v>45098</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51280,7 +51280,7 @@
         <v>45098</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51337,7 +51337,7 @@
         <v>45098</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>45099</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>45099</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>45099</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51565,7 +51565,7 @@
         <v>45103</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51622,7 +51622,7 @@
         <v>45106</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51679,7 +51679,7 @@
         <v>45110</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51736,7 +51736,7 @@
         <v>45110</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51793,7 +51793,7 @@
         <v>45110</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51850,7 +51850,7 @@
         <v>45111</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51907,7 +51907,7 @@
         <v>45118</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45124</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45142</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52078,7 +52078,7 @@
         <v>45145</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52140,7 +52140,7 @@
         <v>45146</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52197,7 +52197,7 @@
         <v>45146</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52259,7 +52259,7 @@
         <v>45147</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45147</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52383,7 +52383,7 @@
         <v>45147</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45147</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52497,7 +52497,7 @@
         <v>45147</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45147</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45147</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52678,7 +52678,7 @@
         <v>45149</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         <v>45149</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52797,7 +52797,7 @@
         <v>45160</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52854,7 +52854,7 @@
         <v>45160</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52911,7 +52911,7 @@
         <v>45160</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52968,7 +52968,7 @@
         <v>45162</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53025,7 +53025,7 @@
         <v>45162</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53082,7 +53082,7 @@
         <v>45162</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53144,7 +53144,7 @@
         <v>45168</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53201,7 +53201,7 @@
         <v>45175</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53258,7 +53258,7 @@
         <v>45176</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53320,7 +53320,7 @@
         <v>45180</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53377,7 +53377,7 @@
         <v>45180</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53434,7 +53434,7 @@
         <v>45187</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>

--- a/Översikt HUDIKSVALL.xlsx
+++ b/Översikt HUDIKSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44131</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>44897</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43650</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44200</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>43747</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44362</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44613</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>43355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>43833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>44106</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44132</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44415</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44802</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44186</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44606</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44789</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44887</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45050</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43584</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43832</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43907</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44750</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45078</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43651</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43727</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43844</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43908</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43917</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43942</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44007</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44174</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44526</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44726</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44768</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44792</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44977</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>45012</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43314</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43318</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43328</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43339</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43362</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43362</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43369</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43374</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43374</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43377</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43383</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43392</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43409</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43418</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43418</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43425</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43448</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43452</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43486</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43486</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43486</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43486</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43486</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43497</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43507</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43521</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43521</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43521</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43521</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43523</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43528</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43535</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43538</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43539</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43542</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43545</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43545</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43552</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43558</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43572</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43573</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43573</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43580</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43581</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43581</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43585</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43588</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43591</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43594</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>43595</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>43599</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43601</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43605</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>43606</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>43607</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43609</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>43609</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>43612</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>43613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43616</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>43623</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43627</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>43627</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43627</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43636</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>43640</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43640</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43640</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>43641</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43642</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>43642</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>43643</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>43644</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43647</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43650</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43650</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43650</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43651</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43651</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43658</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43665</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43672</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43676</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43690</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43690</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43690</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43705</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>43713</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43713</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43713</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>43718</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>43718</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>43720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>43720</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>43721</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>43725</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>43726</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43727</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43731</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43732</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43732</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>43732</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>43733</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>43734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>43734</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43734</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43738</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>43739</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>43739</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>43740</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>43741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43745</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43745</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43748</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>43763</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43769</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43770</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43770</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43775</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>43776</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>43776</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>43780</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>43782</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>43783</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>43786</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>43788</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>43788</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>43790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>43791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>43795</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
 